--- a/spMVC_200_Team/DBMS/테이블명세와정보.xlsx
+++ b/spMVC_200_Team/DBMS/테이블명세와정보.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimsojeong/work/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2983E643-E210-2247-B827-2C69788F5C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F13FF0E5-B56B-40DB-A4A5-0B64382B199C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="500" windowWidth="18260" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="18285" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
@@ -26,7 +21,8 @@
     <sheet name="800etc" sheetId="12" r:id="rId11"/>
     <sheet name="900bottle" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="256">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -162,22 +158,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CHAR(5)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(200)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>한글가변문자열(200)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Code</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -939,13 +923,21 @@
   <si>
     <t>스타벅스 주스(병음료)</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -1910,6 +1902,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1939,21 +1946,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2340,722 +2332,722 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L21"/>
+  <dimension ref="A1:WVT21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="258" width="8.83203125" style="1"/>
+    <col min="13" max="258" width="8.77734375" style="1"/>
     <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
     <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="269" max="514" width="8.83203125" style="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.77734375" style="1"/>
     <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
     <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="525" max="770" width="8.83203125" style="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.77734375" style="1"/>
     <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
     <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="781" max="1026" width="8.83203125" style="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.77734375" style="1"/>
     <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
     <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1036" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1282" width="8.83203125" style="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.77734375" style="1"/>
     <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
     <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1292" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1538" width="8.83203125" style="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.77734375" style="1"/>
     <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
     <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1548" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1794" width="8.83203125" style="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.77734375" style="1"/>
     <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
     <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1804" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1805" max="2050" width="8.83203125" style="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.77734375" style="1"/>
     <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
     <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2060" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2306" width="8.83203125" style="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.77734375" style="1"/>
     <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
     <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2316" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2562" width="8.83203125" style="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.77734375" style="1"/>
     <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
     <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2572" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2818" width="8.83203125" style="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.77734375" style="1"/>
     <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
     <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2828" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2829" max="3074" width="8.83203125" style="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.77734375" style="1"/>
     <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
     <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3084" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3330" width="8.83203125" style="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.77734375" style="1"/>
     <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
     <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3340" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3586" width="8.83203125" style="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.77734375" style="1"/>
     <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
     <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3596" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3842" width="8.83203125" style="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.77734375" style="1"/>
     <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
     <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3852" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3853" max="4098" width="8.83203125" style="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.77734375" style="1"/>
     <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
     <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4108" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4354" width="8.83203125" style="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.77734375" style="1"/>
     <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
     <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4364" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4610" width="8.83203125" style="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.77734375" style="1"/>
     <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
     <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4620" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4866" width="8.83203125" style="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.77734375" style="1"/>
     <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
     <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4876" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4877" max="5122" width="8.83203125" style="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.77734375" style="1"/>
     <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
     <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5132" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5378" width="8.83203125" style="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.77734375" style="1"/>
     <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
     <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5388" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5634" width="8.83203125" style="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.77734375" style="1"/>
     <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
     <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5644" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5890" width="8.83203125" style="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.77734375" style="1"/>
     <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
     <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5900" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5901" max="6146" width="8.83203125" style="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.77734375" style="1"/>
     <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
     <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6156" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6402" width="8.83203125" style="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.77734375" style="1"/>
     <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
     <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6412" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6658" width="8.83203125" style="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.77734375" style="1"/>
     <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
     <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6668" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6914" width="8.83203125" style="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.77734375" style="1"/>
     <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
     <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6924" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6925" max="7170" width="8.83203125" style="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.77734375" style="1"/>
     <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
     <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7180" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7426" width="8.83203125" style="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.77734375" style="1"/>
     <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
     <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7436" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7682" width="8.83203125" style="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.77734375" style="1"/>
     <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
     <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7692" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7938" width="8.83203125" style="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.77734375" style="1"/>
     <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
     <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7948" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7949" max="8194" width="8.83203125" style="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.77734375" style="1"/>
     <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
     <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8204" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8450" width="8.83203125" style="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.77734375" style="1"/>
     <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
     <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8460" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8706" width="8.83203125" style="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.77734375" style="1"/>
     <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
     <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8716" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8962" width="8.83203125" style="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.77734375" style="1"/>
     <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
     <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8972" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8973" max="9218" width="8.83203125" style="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.77734375" style="1"/>
     <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
     <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9228" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9474" width="8.83203125" style="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.77734375" style="1"/>
     <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
     <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9484" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9730" width="8.83203125" style="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.77734375" style="1"/>
     <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
     <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9740" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9986" width="8.83203125" style="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.77734375" style="1"/>
     <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
     <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9996" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9997" max="10242" width="8.83203125" style="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.77734375" style="1"/>
     <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
     <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10252" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10498" width="8.83203125" style="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.77734375" style="1"/>
     <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
     <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10508" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10754" width="8.83203125" style="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.77734375" style="1"/>
     <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
     <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10764" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10765" max="11010" width="8.83203125" style="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.77734375" style="1"/>
     <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
     <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11020" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11266" width="8.83203125" style="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.77734375" style="1"/>
     <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
     <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11276" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11522" width="8.83203125" style="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.77734375" style="1"/>
     <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
     <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11532" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11778" width="8.83203125" style="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.77734375" style="1"/>
     <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
     <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11788" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11789" max="12034" width="8.83203125" style="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.77734375" style="1"/>
     <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
     <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12044" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12290" width="8.83203125" style="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.77734375" style="1"/>
     <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
     <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12300" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12546" width="8.83203125" style="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.77734375" style="1"/>
     <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
     <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12556" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12802" width="8.83203125" style="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.77734375" style="1"/>
     <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
     <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12812" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12813" max="13058" width="8.83203125" style="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.77734375" style="1"/>
     <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
     <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13068" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13314" width="8.83203125" style="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.77734375" style="1"/>
     <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
     <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13324" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13570" width="8.83203125" style="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.77734375" style="1"/>
     <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
     <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13580" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13826" width="8.83203125" style="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.77734375" style="1"/>
     <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
     <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13836" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13837" max="14082" width="8.83203125" style="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.77734375" style="1"/>
     <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
     <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14092" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14338" width="8.83203125" style="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.77734375" style="1"/>
     <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
     <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14348" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14594" width="8.83203125" style="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.77734375" style="1"/>
     <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
     <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14604" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14850" width="8.83203125" style="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.77734375" style="1"/>
     <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
     <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14860" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14861" max="15106" width="8.83203125" style="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.77734375" style="1"/>
     <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
     <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15116" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15362" width="8.83203125" style="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.77734375" style="1"/>
     <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
     <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15372" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15618" width="8.83203125" style="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.77734375" style="1"/>
     <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
     <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15628" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15874" width="8.83203125" style="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.77734375" style="1"/>
     <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
     <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15884" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15885" max="16130" width="8.83203125" style="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.77734375" style="1"/>
     <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
     <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16140" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16384" width="8.83203125" style="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:12" ht="20" customHeight="1" thickBot="1">
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="26" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="28">
+      <c r="I2" s="31"/>
+      <c r="J2" s="33">
         <v>44357</v>
       </c>
-      <c r="K2" s="29"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="20" customHeight="1">
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="27" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="31"/>
+      <c r="K3" s="36"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="2:12" ht="20" customHeight="1" thickBot="1">
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-    </row>
-    <row r="5" spans="2:12" ht="20" customHeight="1" thickBot="1">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3090,7 +3082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20" customHeight="1" thickBot="1">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -3104,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>31</v>
+        <v>255</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
@@ -3115,7 +3107,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:12" ht="20" customHeight="1">
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>2</v>
       </c>
@@ -3123,13 +3115,13 @@
         <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>22</v>
@@ -3140,7 +3132,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="2:12" ht="20" customHeight="1" thickBot="1">
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>3</v>
       </c>
@@ -3154,7 +3146,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>34</v>
+        <v>255</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -3163,7 +3155,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:12" ht="20" customHeight="1">
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>4</v>
       </c>
@@ -3178,7 +3170,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="2:12" ht="20" customHeight="1">
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9">
         <v>5</v>
       </c>
@@ -3193,7 +3185,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="2:12" ht="20" customHeight="1">
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>6</v>
       </c>
@@ -3208,7 +3200,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="2:12" ht="20" customHeight="1">
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
         <v>7</v>
       </c>
@@ -3223,7 +3215,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="2:12" ht="20" customHeight="1">
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>8</v>
       </c>
@@ -3238,7 +3230,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="14" spans="2:12" ht="20" customHeight="1">
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
         <v>9</v>
       </c>
@@ -3253,7 +3245,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="2:12" ht="20" customHeight="1">
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
         <v>10</v>
       </c>
@@ -3268,7 +3260,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="2:12" ht="20" customHeight="1">
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9">
         <v>11</v>
       </c>
@@ -3283,7 +3275,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="18"/>
     </row>
-    <row r="17" spans="2:12" ht="20" customHeight="1">
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
         <v>12</v>
       </c>
@@ -3298,7 +3290,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="18"/>
     </row>
-    <row r="18" spans="2:12" ht="20" customHeight="1">
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9">
         <v>13</v>
       </c>
@@ -3313,7 +3305,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="18"/>
     </row>
-    <row r="19" spans="2:12" ht="20" customHeight="1">
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9">
         <v>14</v>
       </c>
@@ -3328,7 +3320,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="18"/>
     </row>
-    <row r="20" spans="2:12" ht="20" customHeight="1">
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9">
         <v>15</v>
       </c>
@@ -3343,7 +3335,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="16"/>
     </row>
-    <row r="21" spans="2:12" ht="20" customHeight="1" thickBot="1">
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="11">
         <v>16</v>
       </c>
@@ -3382,818 +3374,818 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="37.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="1" width="10.77734375" style="25"/>
+    <col min="2" max="2" width="37.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.77734375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="35">
-        <v>700</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="25">
+        <v>700</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
         <v>701</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="35">
+      <c r="B2" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="25">
         <v>702</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="35">
+      <c r="B3" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="25">
         <v>703</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="35">
+      <c r="B4" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
         <v>704</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
+        <v>705</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="25">
+        <v>706</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="25">
+        <v>707</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="25">
+        <v>708</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="25">
+        <v>709</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="25">
+        <v>710</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="25">
+        <v>711</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="25">
+        <v>712</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="25">
+        <v>713</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="25">
+        <v>714</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="25">
+        <v>715</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="25">
+        <v>716</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="25">
+        <v>717</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="25">
+        <v>718</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="25">
+        <v>719</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="25">
+        <v>720</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="25">
+        <v>721</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="25">
+        <v>722</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="25">
+        <v>723</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="25">
+        <v>724</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="25">
+        <v>725</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="25">
+        <v>726</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="25">
+        <v>727</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="25">
+        <v>728</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="25">
+        <v>729</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="25">
+        <v>730</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="25">
+        <v>731</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="25">
+        <v>732</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="25">
+        <v>733</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="25">
+        <v>734</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="25">
+        <v>735</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="25">
+        <v>736</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="25">
+        <v>700</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="25">
+        <v>701</v>
+      </c>
+      <c r="B39" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="35">
+      <c r="C39" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="25">
+        <v>702</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="25">
+        <v>703</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="25">
+        <v>704</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="25">
         <v>705</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="35">
+      <c r="B43" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="25">
         <v>706</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="35">
+      <c r="B44" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="25">
         <v>707</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="35">
+      <c r="B45" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="25">
         <v>708</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="35">
+      <c r="B46" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="25">
         <v>709</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="35">
+      <c r="B47" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="25">
         <v>710</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="35">
+      <c r="B48" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="25">
         <v>711</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="35">
+      <c r="B49" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="25">
         <v>712</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="35">
+      <c r="B50" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="25">
         <v>713</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="35">
+      <c r="B51" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="25">
         <v>714</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="35">
+      <c r="B52" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="25">
         <v>715</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="35">
+      <c r="B53" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="25">
         <v>716</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="35">
+      <c r="B54" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="25">
         <v>717</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="35">
+      <c r="B55" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="25">
         <v>718</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="C19" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="35">
+      <c r="B56" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C56" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="25">
         <v>719</v>
       </c>
-      <c r="B20" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="C20" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="35">
+      <c r="B57" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="25">
         <v>720</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="35">
+      <c r="B58" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C58" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="25">
         <v>721</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20">
-      <c r="A23" s="35">
+      <c r="B59" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="25">
         <v>722</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="35">
+      <c r="B60" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C60" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="25">
         <v>723</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="C24" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="35">
+      <c r="B61" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="25">
         <v>724</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="35">
+      <c r="B62" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C62" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="25">
         <v>725</v>
       </c>
-      <c r="B26" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="C26" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="35">
+      <c r="B63" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="25">
         <v>726</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20">
-      <c r="A28" s="35">
+      <c r="B64" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="25">
         <v>727</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C28" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="35">
+      <c r="B65" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="25">
         <v>728</v>
       </c>
-      <c r="B29" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="35">
+      <c r="B66" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="25">
         <v>729</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="C30" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="35">
+      <c r="B67" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C67" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="25">
         <v>730</v>
       </c>
-      <c r="B31" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="C31" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20">
-      <c r="A32" s="35">
+      <c r="B68" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C68" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="20.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A69" s="25">
         <v>731</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="C32" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="35">
+      <c r="B69" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="25">
         <v>732</v>
       </c>
-      <c r="B33" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="C33" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20">
-      <c r="A34" s="35">
+      <c r="B70" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="20.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A71" s="25">
         <v>733</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="35">
+      <c r="B71" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="25">
         <v>734</v>
       </c>
-      <c r="B35" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="C35" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="35">
+      <c r="B72" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="25">
         <v>735</v>
       </c>
-      <c r="B36" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C36" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="35">
+      <c r="B73" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="25">
         <v>736</v>
       </c>
-      <c r="B37" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="C37" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="35">
-        <v>700</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="35">
-        <v>701</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C39" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="35">
-        <v>702</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C40" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="35">
-        <v>703</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="C41" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="35">
-        <v>704</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="C42" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="35">
-        <v>705</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="C43" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="35">
-        <v>706</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C44" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="35">
-        <v>707</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C45" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="35">
-        <v>708</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="C46" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="35">
-        <v>709</v>
-      </c>
-      <c r="B47" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="35">
-        <v>710</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="C48" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="35">
-        <v>711</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="C49" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="35">
-        <v>712</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="C50" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="35">
-        <v>713</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="35">
-        <v>714</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="C52" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="35">
-        <v>715</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="C53" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="35">
-        <v>716</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="C54" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="35">
-        <v>717</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="C55" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="35">
-        <v>718</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="C56" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="35">
-        <v>719</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="C57" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="35">
-        <v>720</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="C58" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="35">
-        <v>721</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="C59" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20">
-      <c r="A60" s="35">
-        <v>722</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="35">
-        <v>723</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="C61" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="35">
-        <v>724</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="C62" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="35">
-        <v>725</v>
-      </c>
-      <c r="B63" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="C63" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="35">
-        <v>726</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="C64" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20">
-      <c r="A65" s="35">
-        <v>727</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C65" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="35">
-        <v>728</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C66" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="35">
-        <v>729</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="C67" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="35">
-        <v>730</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="C68" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20">
-      <c r="A69" s="35">
-        <v>731</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="C69" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="35">
-        <v>732</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="C70" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20">
-      <c r="A71" s="35">
-        <v>733</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="C71" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="35">
-        <v>734</v>
-      </c>
-      <c r="B72" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="C72" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="35">
-        <v>735</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C73" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="35">
-        <v>736</v>
-      </c>
-      <c r="B74" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="C74" s="35">
+      <c r="B74" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="25">
         <v>700</v>
       </c>
     </row>
@@ -4211,183 +4203,183 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="33.83203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="1" width="10.77734375" style="25"/>
+    <col min="2" max="2" width="33.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.77734375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="25">
         <v>800</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="35">
+      <c r="B1" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
         <v>801</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="25">
+        <v>802</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="25">
+        <v>803</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
+        <v>804</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C5" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="35">
-        <v>802</v>
-      </c>
-      <c r="B3" s="35" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
+        <v>805</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C6" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="35">
-        <v>803</v>
-      </c>
-      <c r="B4" s="35" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="25">
+        <v>806</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C7" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="35">
-        <v>804</v>
-      </c>
-      <c r="B5" s="35" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="25">
+        <v>807</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C8" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="35">
-        <v>805</v>
-      </c>
-      <c r="B6" s="35" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="25">
+        <v>808</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C9" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="35">
-        <v>806</v>
-      </c>
-      <c r="B7" s="35" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="25">
+        <v>809</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C10" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="35">
-        <v>807</v>
-      </c>
-      <c r="B8" s="35" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="25">
+        <v>810</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C11" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="35">
-        <v>808</v>
-      </c>
-      <c r="B9" s="35" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="25">
+        <v>811</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C12" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="35">
-        <v>809</v>
-      </c>
-      <c r="B10" s="35" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="25">
+        <v>812</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C13" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="35">
-        <v>810</v>
-      </c>
-      <c r="B11" s="35" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="25">
+        <v>813</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C14" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="35">
-        <v>811</v>
-      </c>
-      <c r="B12" s="35" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="25">
+        <v>814</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C15" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="35">
-        <v>812</v>
-      </c>
-      <c r="B13" s="35" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="25">
+        <v>815</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="35">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="35">
-        <v>813</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="35">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="35">
-        <v>814</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="35">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="35">
-        <v>815</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="35">
+      <c r="C16" s="25">
         <v>800</v>
       </c>
     </row>
@@ -4405,172 +4397,172 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="24.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="1" width="10.77734375" style="25"/>
+    <col min="2" max="2" width="24.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.77734375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="25">
         <v>900</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="35">
+      <c r="B1" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
         <v>901</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="25">
+        <v>902</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="25">
+        <v>903</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
+        <v>904</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C5" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="35">
-        <v>902</v>
-      </c>
-      <c r="B3" s="35" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
+        <v>905</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C6" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="35">
-        <v>903</v>
-      </c>
-      <c r="B4" s="35" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="25">
+        <v>906</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C7" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="35">
-        <v>904</v>
-      </c>
-      <c r="B5" s="35" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="25">
+        <v>907</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C8" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="35">
-        <v>905</v>
-      </c>
-      <c r="B6" s="35" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="25">
+        <v>908</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C9" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="35">
-        <v>906</v>
-      </c>
-      <c r="B7" s="35" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="25">
+        <v>909</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C10" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="35">
-        <v>907</v>
-      </c>
-      <c r="B8" s="35" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="25">
+        <v>910</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C11" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="35">
-        <v>908</v>
-      </c>
-      <c r="B9" s="35" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="25">
+        <v>911</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C12" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="35">
-        <v>909</v>
-      </c>
-      <c r="B10" s="35" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="25">
+        <v>912</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C13" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="35">
-        <v>910</v>
-      </c>
-      <c r="B11" s="35" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="25">
+        <v>913</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C14" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="35">
-        <v>911</v>
-      </c>
-      <c r="B12" s="35" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="25">
+        <v>914</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="35">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="35">
-        <v>912</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="35">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="35">
-        <v>913</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="35">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="35">
-        <v>914</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="35">
+      <c r="C15" s="25">
         <v>900</v>
       </c>
     </row>
@@ -4588,865 +4580,865 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="22">
+        <v>100</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="22">
+        <v>101</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="22">
+        <v>102</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="32">
+    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="22">
+        <v>103</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="22">
+        <v>104</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="22">
+        <v>105</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="22">
+        <v>106</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="22">
+        <v>107</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="22">
+        <v>108</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="22">
+        <v>109</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="22">
+        <v>110</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="22">
+        <v>200</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="22">
+        <v>201</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="22">
+        <v>202</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="22">
+        <v>300</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="22">
+        <v>301</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="22">
+        <v>302</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="22">
+        <v>303</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="22">
+        <v>304</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="22">
+        <v>305</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="22">
+        <v>306</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="22">
+        <v>307</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="22">
+        <v>308</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="22">
+        <v>309</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="22">
+        <v>310</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="22">
+        <v>311</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="22">
+        <v>312</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="22">
+        <v>313</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="22">
+        <v>314</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="22">
+        <v>315</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="22">
+        <v>316</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="22">
+        <v>317</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="22">
+        <v>318</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="20.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A35" s="22">
+        <v>319</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="22">
+        <v>320</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="22">
+        <v>321</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="20.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A38" s="22">
+        <v>322</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="22">
+        <v>323</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="20.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A40" s="22">
+        <v>324</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="20.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A41" s="22">
+        <v>325</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A42" s="22">
+        <v>326</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="22">
+        <v>327</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="20.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A44" s="22">
+        <v>328</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="20.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A45" s="22">
+        <v>329</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="20.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A46" s="22">
+        <v>330</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="20.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A47" s="22">
+        <v>331</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A48" s="22">
+        <v>400</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A49" s="22">
+        <v>401</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A50" s="22">
+        <v>402</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A51" s="22">
+        <v>403</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A52" s="22">
+        <v>404</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A53" s="22">
+        <v>405</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A54" s="22">
+        <v>406</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A55" s="22">
+        <v>407</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A56" s="22">
+        <v>408</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A57" s="22">
+        <v>409</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A58" s="22">
+        <v>410</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A59" s="22">
+        <v>411</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A60" s="22">
+        <v>412</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A61" s="22">
+        <v>413</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A62" s="22">
+        <v>414</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A63" s="22">
+        <v>415</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A64" s="22">
+        <v>416</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A65" s="22">
+        <v>500</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A66" s="22">
+        <v>501</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A67" s="22">
+        <v>502</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A68" s="22">
+        <v>503</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A69" s="22">
+        <v>504</v>
+      </c>
+      <c r="B69" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18">
-      <c r="A3" s="32">
+    </row>
+    <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A70" s="22">
+        <v>505</v>
+      </c>
+      <c r="B70" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18">
-      <c r="A4" s="32">
+    </row>
+    <row r="71" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A71" s="22">
+        <v>506</v>
+      </c>
+      <c r="B71" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18">
-      <c r="A5" s="32">
+    </row>
+    <row r="72" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A72" s="22">
+        <v>507</v>
+      </c>
+      <c r="B72" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18">
-      <c r="A6" s="32">
+    </row>
+    <row r="73" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A73" s="22">
+        <v>600</v>
+      </c>
+      <c r="B73" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18">
-      <c r="A7" s="32">
+    </row>
+    <row r="74" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A74" s="22">
+        <v>601</v>
+      </c>
+      <c r="B74" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18">
-      <c r="A8" s="32">
+    </row>
+    <row r="75" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A75" s="22">
+        <v>602</v>
+      </c>
+      <c r="B75" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18">
-      <c r="A9" s="32">
+    </row>
+    <row r="76" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A76" s="22">
+        <v>603</v>
+      </c>
+      <c r="B76" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18">
-      <c r="A10" s="32">
+    </row>
+    <row r="77" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A77" s="22">
+        <v>800</v>
+      </c>
+      <c r="B77" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18">
-      <c r="A11" s="32">
+    </row>
+    <row r="78" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A78" s="22">
+        <v>801</v>
+      </c>
+      <c r="B78" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18">
-      <c r="A12" s="32">
+    </row>
+    <row r="79" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A79" s="22">
+        <v>802</v>
+      </c>
+      <c r="B79" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18">
-      <c r="A13" s="32">
-        <v>200</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18">
-      <c r="A14" s="32">
-        <v>201</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18">
-      <c r="A15" s="32">
-        <v>202</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18">
-      <c r="A16" s="32">
-        <v>300</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20">
-      <c r="A17" s="32">
-        <v>301</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20">
-      <c r="A18" s="32">
-        <v>302</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20">
-      <c r="A19" s="32">
-        <v>303</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20">
-      <c r="A20" s="32">
-        <v>304</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20">
-      <c r="A21" s="32">
-        <v>305</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20">
-      <c r="A22" s="32">
-        <v>306</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="20">
-      <c r="A23" s="32">
-        <v>307</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="20">
-      <c r="A24" s="32">
-        <v>308</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="20">
-      <c r="A25" s="32">
-        <v>309</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="20">
-      <c r="A26" s="32">
-        <v>310</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="20">
-      <c r="A27" s="32">
-        <v>311</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="20">
-      <c r="A28" s="32">
-        <v>312</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18">
-      <c r="A29" s="32">
-        <v>313</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18">
-      <c r="A30" s="32">
-        <v>314</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="20">
-      <c r="A31" s="32">
-        <v>315</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="20">
-      <c r="A32" s="32">
-        <v>316</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18">
-      <c r="A33" s="32">
-        <v>317</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="20">
-      <c r="A34" s="32">
-        <v>318</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="20">
-      <c r="A35" s="32">
-        <v>319</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18">
-      <c r="A36" s="32">
-        <v>320</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18">
-      <c r="A37" s="32">
-        <v>321</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="20">
-      <c r="A38" s="32">
-        <v>322</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="18">
-      <c r="A39" s="32">
-        <v>323</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="20">
-      <c r="A40" s="32">
-        <v>324</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="20">
-      <c r="A41" s="32">
-        <v>325</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="18">
-      <c r="A42" s="32">
-        <v>326</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="18">
-      <c r="A43" s="32">
-        <v>327</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="20">
-      <c r="A44" s="32">
-        <v>328</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="20">
-      <c r="A45" s="32">
-        <v>329</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="20">
-      <c r="A46" s="32">
-        <v>330</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="20">
-      <c r="A47" s="32">
-        <v>331</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="18">
-      <c r="A48" s="32">
-        <v>400</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="18">
-      <c r="A49" s="32">
-        <v>401</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="18">
-      <c r="A50" s="32">
-        <v>402</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="18">
-      <c r="A51" s="32">
-        <v>403</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="18">
-      <c r="A52" s="32">
-        <v>404</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="18">
-      <c r="A53" s="32">
-        <v>405</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="18">
-      <c r="A54" s="32">
-        <v>406</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18">
-      <c r="A55" s="32">
-        <v>407</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="18">
-      <c r="A56" s="32">
-        <v>408</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="18">
-      <c r="A57" s="32">
-        <v>409</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="18">
-      <c r="A58" s="32">
-        <v>410</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="18">
-      <c r="A59" s="32">
-        <v>411</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="18">
-      <c r="A60" s="32">
-        <v>412</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="18">
-      <c r="A61" s="32">
-        <v>413</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="18">
-      <c r="A62" s="32">
-        <v>414</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="18">
-      <c r="A63" s="32">
-        <v>415</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="18">
-      <c r="A64" s="32">
-        <v>416</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="18">
-      <c r="A65" s="32">
-        <v>500</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="18">
-      <c r="A66" s="32">
-        <v>501</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="18">
-      <c r="A67" s="32">
-        <v>502</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="18">
-      <c r="A68" s="32">
-        <v>503</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="18">
-      <c r="A69" s="32">
-        <v>504</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="18">
-      <c r="A70" s="32">
-        <v>505</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="18">
-      <c r="A71" s="32">
-        <v>506</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="18">
-      <c r="A72" s="32">
-        <v>507</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="18">
-      <c r="A73" s="32">
-        <v>600</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="18">
-      <c r="A74" s="32">
-        <v>601</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="18">
-      <c r="A75" s="32">
-        <v>602</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="18">
-      <c r="A76" s="32">
-        <v>603</v>
-      </c>
-      <c r="B76" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="18">
-      <c r="A77" s="32">
-        <v>800</v>
-      </c>
-      <c r="B77" s="32" t="s">
+    </row>
+    <row r="80" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A80" s="22">
+        <v>803</v>
+      </c>
+      <c r="B80" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="18">
-      <c r="A78" s="32">
-        <v>801</v>
-      </c>
-      <c r="B78" s="32" t="s">
+    <row r="81" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A81" s="22">
+        <v>804</v>
+      </c>
+      <c r="B81" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="18">
-      <c r="A79" s="32">
-        <v>802</v>
-      </c>
-      <c r="B79" s="32" t="s">
+    <row r="82" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A82" s="22">
+        <v>805</v>
+      </c>
+      <c r="B82" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="18">
-      <c r="A80" s="32">
-        <v>803</v>
-      </c>
-      <c r="B80" s="32" t="s">
+    <row r="83" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A83" s="22">
+        <v>806</v>
+      </c>
+      <c r="B83" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="18">
-      <c r="A81" s="32">
-        <v>804</v>
-      </c>
-      <c r="B81" s="32" t="s">
+    <row r="84" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A84" s="22">
+        <v>807</v>
+      </c>
+      <c r="B84" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="18">
-      <c r="A82" s="32">
-        <v>805</v>
-      </c>
-      <c r="B82" s="32" t="s">
+    <row r="85" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A85" s="22">
+        <v>808</v>
+      </c>
+      <c r="B85" s="22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="18">
-      <c r="A83" s="32">
-        <v>806</v>
-      </c>
-      <c r="B83" s="32" t="s">
+    <row r="86" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A86" s="22">
+        <v>809</v>
+      </c>
+      <c r="B86" s="22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="18">
-      <c r="A84" s="32">
-        <v>807</v>
-      </c>
-      <c r="B84" s="32" t="s">
+    <row r="87" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A87" s="22">
+        <v>810</v>
+      </c>
+      <c r="B87" s="22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="18">
-      <c r="A85" s="32">
-        <v>808</v>
-      </c>
-      <c r="B85" s="32" t="s">
+    <row r="88" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A88" s="22">
+        <v>811</v>
+      </c>
+      <c r="B88" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="18">
-      <c r="A86" s="32">
-        <v>809</v>
-      </c>
-      <c r="B86" s="32" t="s">
+    <row r="89" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A89" s="22">
+        <v>812</v>
+      </c>
+      <c r="B89" s="22" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="18">
-      <c r="A87" s="32">
-        <v>810</v>
-      </c>
-      <c r="B87" s="32" t="s">
+    <row r="90" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A90" s="22">
+        <v>813</v>
+      </c>
+      <c r="B90" s="22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="18">
-      <c r="A88" s="32">
-        <v>811</v>
-      </c>
-      <c r="B88" s="32" t="s">
+    <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A91" s="22">
+        <v>814</v>
+      </c>
+      <c r="B91" s="22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="18">
-      <c r="A89" s="32">
-        <v>812</v>
-      </c>
-      <c r="B89" s="32" t="s">
+    <row r="92" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A92" s="22">
+        <v>815</v>
+      </c>
+      <c r="B92" s="22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="18">
-      <c r="A90" s="32">
-        <v>813</v>
-      </c>
-      <c r="B90" s="32" t="s">
+    <row r="93" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A93" s="22">
+        <v>900</v>
+      </c>
+      <c r="B93" s="22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18">
-      <c r="A91" s="32">
-        <v>814</v>
-      </c>
-      <c r="B91" s="32" t="s">
+    <row r="94" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A94" s="22">
+        <v>901</v>
+      </c>
+      <c r="B94" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="18">
-      <c r="A92" s="32">
-        <v>815</v>
-      </c>
-      <c r="B92" s="32" t="s">
+    <row r="95" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A95" s="22">
+        <v>902</v>
+      </c>
+      <c r="B95" s="22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="18">
-      <c r="A93" s="32">
-        <v>900</v>
-      </c>
-      <c r="B93" s="32" t="s">
+    <row r="96" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A96" s="22">
+        <v>903</v>
+      </c>
+      <c r="B96" s="22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="18">
-      <c r="A94" s="32">
-        <v>901</v>
-      </c>
-      <c r="B94" s="32" t="s">
+    <row r="97" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A97" s="22">
+        <v>904</v>
+      </c>
+      <c r="B97" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="18">
-      <c r="A95" s="32">
-        <v>902</v>
-      </c>
-      <c r="B95" s="32" t="s">
+    <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A98" s="22">
+        <v>905</v>
+      </c>
+      <c r="B98" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="18">
-      <c r="A96" s="32">
-        <v>903</v>
-      </c>
-      <c r="B96" s="32" t="s">
+    <row r="99" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A99" s="22">
+        <v>906</v>
+      </c>
+      <c r="B99" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="18">
-      <c r="A97" s="32">
-        <v>904</v>
-      </c>
-      <c r="B97" s="32" t="s">
+    <row r="100" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A100" s="22">
+        <v>907</v>
+      </c>
+      <c r="B100" s="22" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="18">
-      <c r="A98" s="32">
-        <v>905</v>
-      </c>
-      <c r="B98" s="32" t="s">
+    <row r="101" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A101" s="22">
+        <v>908</v>
+      </c>
+      <c r="B101" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="18">
-      <c r="A99" s="32">
-        <v>906</v>
-      </c>
-      <c r="B99" s="32" t="s">
+    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A102" s="22">
+        <v>909</v>
+      </c>
+      <c r="B102" s="22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="18">
-      <c r="A100" s="32">
-        <v>907</v>
-      </c>
-      <c r="B100" s="32" t="s">
+    <row r="103" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A103" s="22">
+        <v>910</v>
+      </c>
+      <c r="B103" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="18">
-      <c r="A101" s="32">
-        <v>908</v>
-      </c>
-      <c r="B101" s="32" t="s">
+    <row r="104" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A104" s="22">
+        <v>911</v>
+      </c>
+      <c r="B104" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18">
-      <c r="A102" s="32">
-        <v>909</v>
-      </c>
-      <c r="B102" s="32" t="s">
+    <row r="105" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A105" s="22">
+        <v>912</v>
+      </c>
+      <c r="B105" s="22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="18">
-      <c r="A103" s="32">
-        <v>910</v>
-      </c>
-      <c r="B103" s="32" t="s">
+    <row r="106" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A106" s="22">
+        <v>913</v>
+      </c>
+      <c r="B106" s="22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="18">
-      <c r="A104" s="32">
-        <v>911</v>
-      </c>
-      <c r="B104" s="32" t="s">
+    <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A107" s="22">
+        <v>914</v>
+      </c>
+      <c r="B107" s="22" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="18">
-      <c r="A105" s="32">
-        <v>912</v>
-      </c>
-      <c r="B105" s="32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="18">
-      <c r="A106" s="32">
-        <v>913</v>
-      </c>
-      <c r="B106" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="18">
-      <c r="A107" s="32">
-        <v>914</v>
-      </c>
-      <c r="B107" s="32" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5463,88 +5455,88 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18">
+    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18">
+        <v>149</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18">
-      <c r="A3" t="s">
+      <c r="B5" s="24">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="32">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18">
-      <c r="A4" t="s">
+      <c r="B6" s="22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="32">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18">
-      <c r="A5" t="s">
+      <c r="B7" s="22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="34">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18">
-      <c r="A6" t="s">
+      <c r="B8" s="22">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="32">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18">
-      <c r="A7" t="s">
+      <c r="B9" s="22">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="32">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18">
-      <c r="A8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="32">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18">
-      <c r="A9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="32">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18">
-      <c r="A10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="32">
+      <c r="B10" s="22">
         <v>900</v>
       </c>
     </row>
@@ -5558,133 +5550,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF3332F-D751-0B48-9FF0-781ED039E951}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="29.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="1" width="10.77734375" style="25"/>
+    <col min="2" max="2" width="29.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="25" customWidth="1"/>
+    <col min="4" max="16384" width="10.77734375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="25">
         <v>100</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="35">
+      <c r="B1" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
         <v>101</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="35">
+      <c r="B2" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="25">
         <v>102</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="35">
+      <c r="B3" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="25">
         <v>103</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B4" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
         <v>104</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="35">
+      <c r="B5" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
         <v>105</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="35">
+      <c r="B6" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="25">
         <v>106</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="35">
+      <c r="B7" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="25">
         <v>107</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="35">
+      <c r="B8" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="25">
         <v>108</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="35">
+      <c r="B9" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="25">
         <v>109</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="35">
+      <c r="B10" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="25">
         <v>110</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="35">
+      <c r="B11" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="25">
         <v>100</v>
       </c>
     </row>
@@ -5702,47 +5694,47 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="35"/>
-    <col min="4" max="4" width="10.1640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="3" width="10.77734375" style="25"/>
+    <col min="4" max="4" width="10.109375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.77734375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="25">
         <v>200</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="D2" s="35">
+      <c r="E1" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D2" s="25">
         <v>201</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="35">
+      <c r="E2" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="D3" s="35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D3" s="25">
         <v>202</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="35">
+      <c r="E3" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="25">
         <v>200</v>
       </c>
     </row>
@@ -5760,359 +5752,359 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="36.83203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="1" width="10.77734375" style="25"/>
+    <col min="2" max="2" width="36.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.77734375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="25">
         <v>300</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20">
-      <c r="A2" s="35">
+      <c r="B1" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
         <v>301</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="35">
+      <c r="B2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20">
-      <c r="A3" s="35">
+    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="25">
         <v>302</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="35">
+      <c r="B3" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20">
-      <c r="A4" s="35">
+    <row r="4" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="25">
         <v>303</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20">
-      <c r="A5" s="35">
+    <row r="5" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
         <v>304</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="35">
+      <c r="B5" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20">
-      <c r="A6" s="35">
+    <row r="6" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
         <v>305</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="35">
+      <c r="B6" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20">
-      <c r="A7" s="35">
+    <row r="7" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="25">
         <v>306</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="35">
+      <c r="B7" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20">
-      <c r="A8" s="35">
+    <row r="8" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="25">
         <v>307</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="35">
+      <c r="B8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20">
-      <c r="A9" s="35">
+    <row r="9" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="25">
         <v>308</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="35">
+      <c r="B9" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20">
-      <c r="A10" s="35">
+    <row r="10" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="25">
         <v>309</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="35">
+      <c r="B10" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20">
-      <c r="A11" s="35">
+    <row r="11" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="25">
         <v>310</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="35">
+      <c r="B11" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20">
-      <c r="A12" s="35">
+    <row r="12" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="25">
         <v>311</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="35">
+      <c r="B12" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20">
-      <c r="A13" s="35">
+    <row r="13" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="25">
         <v>312</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="35">
+      <c r="B13" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="25">
         <v>313</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="35">
+      <c r="B14" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="25">
         <v>314</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="35">
+      <c r="B15" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20">
-      <c r="A16" s="35">
+    <row r="16" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="25">
         <v>315</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="35">
+      <c r="B16" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20">
-      <c r="A17" s="35">
+    <row r="17" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="25">
         <v>316</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="35">
+      <c r="B17" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="25">
         <v>317</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="35">
+      <c r="B18" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20">
-      <c r="A19" s="35">
+    <row r="19" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="25">
         <v>318</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="35">
+      <c r="B19" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20">
-      <c r="A20" s="35">
+    <row r="20" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="25">
         <v>319</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="35">
+      <c r="B20" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="25">
         <v>320</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="35">
+      <c r="B21" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="25">
         <v>321</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="35">
+      <c r="B22" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20">
-      <c r="A23" s="35">
+    <row r="23" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="25">
         <v>322</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="35">
+      <c r="B23" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="25">
         <v>323</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="35">
+      <c r="B24" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20">
-      <c r="A25" s="35">
+    <row r="25" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="25">
         <v>324</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="35">
+      <c r="B25" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20">
-      <c r="A26" s="35">
+    <row r="26" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="25">
         <v>325</v>
       </c>
-      <c r="B26" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="35">
+      <c r="B26" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="25">
         <v>326</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="35">
+      <c r="B27" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="25">
         <v>327</v>
       </c>
-      <c r="B28" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="C28" s="35">
+      <c r="B28" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20">
-      <c r="A29" s="35">
+    <row r="29" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="25">
         <v>328</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="35">
+      <c r="B29" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20">
-      <c r="A30" s="35">
+    <row r="30" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="25">
         <v>329</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="35">
+      <c r="B30" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20">
-      <c r="A31" s="35">
+    <row r="31" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="25">
         <v>330</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="35">
+      <c r="B31" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20">
-      <c r="A32" s="35">
+    <row r="32" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="25">
         <v>331</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="35">
+      <c r="B32" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="25">
         <v>300</v>
       </c>
     </row>
@@ -6130,194 +6122,194 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="36.83203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="1" width="10.77734375" style="25"/>
+    <col min="2" max="2" width="36.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.77734375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="25">
         <v>400</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="35">
+      <c r="B1" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
         <v>401</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="35">
+      <c r="B2" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="25">
         <v>402</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="35">
+      <c r="B3" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="25">
         <v>403</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B4" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
         <v>404</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="35">
+      <c r="B5" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
         <v>405</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="35">
+      <c r="B6" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="25">
         <v>406</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="35">
+      <c r="B7" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="25">
         <v>407</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="35">
+      <c r="B8" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="25">
         <v>408</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="35">
+      <c r="B9" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="25">
         <v>409</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="35">
+      <c r="B10" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="25">
         <v>410</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="35">
+      <c r="B11" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="25">
         <v>411</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="35">
+      <c r="B12" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="25">
         <v>412</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="35">
+      <c r="B13" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="25">
         <v>413</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="35">
+      <c r="B14" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="25">
         <v>414</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="35">
+      <c r="B15" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="25">
         <v>415</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="35">
+      <c r="B16" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="25">
         <v>416</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="35">
+      <c r="B17" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="25">
         <v>400</v>
       </c>
     </row>
@@ -6335,95 +6327,95 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="31.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="1" width="10.77734375" style="25"/>
+    <col min="2" max="2" width="31.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.77734375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="25">
         <v>500</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="35">
+      <c r="B1" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
         <v>501</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="35">
+      <c r="B2" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="25">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="25">
         <v>502</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="35">
+      <c r="B3" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="25">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="25">
         <v>503</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B4" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="25">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
         <v>504</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="35">
+      <c r="B5" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="25">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
         <v>505</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="35">
+      <c r="B6" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="25">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="25">
         <v>506</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="35">
+      <c r="B7" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="25">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="25">
         <v>507</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C8" s="35">
+      <c r="B8" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="25">
         <v>500</v>
       </c>
     </row>
@@ -6441,51 +6433,51 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="32.5" style="35" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="1" width="10.77734375" style="25"/>
+    <col min="2" max="2" width="32.44140625" style="25" customWidth="1"/>
+    <col min="3" max="16384" width="10.77734375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="25">
         <v>600</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="35">
+      <c r="B1" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
         <v>601</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="35">
+      <c r="B2" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="25">
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="25">
         <v>602</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="35">
+      <c r="B3" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="25">
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="25">
         <v>603</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B4" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="25">
         <v>600</v>
       </c>
     </row>

--- a/spMVC_200_Team/DBMS/테이블명세와정보.xlsx
+++ b/spMVC_200_Team/DBMS/테이블명세와정보.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F13FF0E5-B56B-40DB-A4A5-0B64382B199C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimsojeong/work/springMVC/Biz_2021_06_springMVC/spMVC_200_Team/DBMS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FAB998-FC50-9D45-B2BF-19DD714BB766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="18285" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="500" windowWidth="18260" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
@@ -21,8 +26,7 @@
     <sheet name="800etc" sheetId="12" r:id="rId11"/>
     <sheet name="900bottle" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:O17"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="256">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -162,6 +166,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Code</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -925,11 +933,7 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
+    <t>varchar(256)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -937,7 +941,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -2332,661 +2336,661 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:WVT21"/>
+  <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="258" width="8.77734375" style="1"/>
+    <col min="13" max="258" width="8.83203125" style="1"/>
     <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
     <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="269" max="514" width="8.77734375" style="1"/>
+    <col min="268" max="268" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.83203125" style="1"/>
     <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
     <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="525" max="770" width="8.77734375" style="1"/>
+    <col min="524" max="524" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.83203125" style="1"/>
     <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
     <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="781" max="1026" width="8.77734375" style="1"/>
+    <col min="780" max="780" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.83203125" style="1"/>
     <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
     <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1282" width="8.77734375" style="1"/>
+    <col min="1036" max="1036" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.83203125" style="1"/>
     <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
     <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1538" width="8.77734375" style="1"/>
+    <col min="1292" max="1292" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.83203125" style="1"/>
     <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
     <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1794" width="8.77734375" style="1"/>
+    <col min="1548" max="1548" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.83203125" style="1"/>
     <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
     <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1805" max="2050" width="8.77734375" style="1"/>
+    <col min="1804" max="1804" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.83203125" style="1"/>
     <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
     <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2306" width="8.77734375" style="1"/>
+    <col min="2060" max="2060" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.83203125" style="1"/>
     <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
     <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2562" width="8.77734375" style="1"/>
+    <col min="2316" max="2316" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.83203125" style="1"/>
     <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
     <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2818" width="8.77734375" style="1"/>
+    <col min="2572" max="2572" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.83203125" style="1"/>
     <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
     <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2829" max="3074" width="8.77734375" style="1"/>
+    <col min="2828" max="2828" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.83203125" style="1"/>
     <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
     <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3330" width="8.77734375" style="1"/>
+    <col min="3084" max="3084" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.83203125" style="1"/>
     <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
     <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3586" width="8.77734375" style="1"/>
+    <col min="3340" max="3340" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.83203125" style="1"/>
     <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
     <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3842" width="8.77734375" style="1"/>
+    <col min="3596" max="3596" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.83203125" style="1"/>
     <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
     <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3853" max="4098" width="8.77734375" style="1"/>
+    <col min="3852" max="3852" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.83203125" style="1"/>
     <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
     <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4354" width="8.77734375" style="1"/>
+    <col min="4108" max="4108" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.83203125" style="1"/>
     <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
     <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4610" width="8.77734375" style="1"/>
+    <col min="4364" max="4364" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.83203125" style="1"/>
     <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
     <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4866" width="8.77734375" style="1"/>
+    <col min="4620" max="4620" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.83203125" style="1"/>
     <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
     <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4877" max="5122" width="8.77734375" style="1"/>
+    <col min="4876" max="4876" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.83203125" style="1"/>
     <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
     <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5378" width="8.77734375" style="1"/>
+    <col min="5132" max="5132" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.83203125" style="1"/>
     <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
     <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5634" width="8.77734375" style="1"/>
+    <col min="5388" max="5388" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.83203125" style="1"/>
     <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
     <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5890" width="8.77734375" style="1"/>
+    <col min="5644" max="5644" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.83203125" style="1"/>
     <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
     <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5901" max="6146" width="8.77734375" style="1"/>
+    <col min="5900" max="5900" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.83203125" style="1"/>
     <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
     <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6402" width="8.77734375" style="1"/>
+    <col min="6156" max="6156" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.83203125" style="1"/>
     <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
     <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6658" width="8.77734375" style="1"/>
+    <col min="6412" max="6412" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.83203125" style="1"/>
     <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
     <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6914" width="8.77734375" style="1"/>
+    <col min="6668" max="6668" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.83203125" style="1"/>
     <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
     <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6925" max="7170" width="8.77734375" style="1"/>
+    <col min="6924" max="6924" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.83203125" style="1"/>
     <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
     <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7426" width="8.77734375" style="1"/>
+    <col min="7180" max="7180" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.83203125" style="1"/>
     <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
     <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7682" width="8.77734375" style="1"/>
+    <col min="7436" max="7436" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.83203125" style="1"/>
     <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
     <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7938" width="8.77734375" style="1"/>
+    <col min="7692" max="7692" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.83203125" style="1"/>
     <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
     <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7949" max="8194" width="8.77734375" style="1"/>
+    <col min="7948" max="7948" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.83203125" style="1"/>
     <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
     <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8450" width="8.77734375" style="1"/>
+    <col min="8204" max="8204" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.83203125" style="1"/>
     <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
     <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8706" width="8.77734375" style="1"/>
+    <col min="8460" max="8460" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.83203125" style="1"/>
     <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
     <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8962" width="8.77734375" style="1"/>
+    <col min="8716" max="8716" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.83203125" style="1"/>
     <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
     <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8973" max="9218" width="8.77734375" style="1"/>
+    <col min="8972" max="8972" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.83203125" style="1"/>
     <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
     <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9474" width="8.77734375" style="1"/>
+    <col min="9228" max="9228" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.83203125" style="1"/>
     <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
     <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9730" width="8.77734375" style="1"/>
+    <col min="9484" max="9484" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.83203125" style="1"/>
     <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
     <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9986" width="8.77734375" style="1"/>
+    <col min="9740" max="9740" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.83203125" style="1"/>
     <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
     <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9997" max="10242" width="8.77734375" style="1"/>
+    <col min="9996" max="9996" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.83203125" style="1"/>
     <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
     <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10498" width="8.77734375" style="1"/>
+    <col min="10252" max="10252" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.83203125" style="1"/>
     <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
     <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10754" width="8.77734375" style="1"/>
+    <col min="10508" max="10508" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.83203125" style="1"/>
     <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
     <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10765" max="11010" width="8.77734375" style="1"/>
+    <col min="10764" max="10764" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.83203125" style="1"/>
     <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
     <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11266" width="8.77734375" style="1"/>
+    <col min="11020" max="11020" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.83203125" style="1"/>
     <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
     <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11522" width="8.77734375" style="1"/>
+    <col min="11276" max="11276" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.83203125" style="1"/>
     <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
     <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11778" width="8.77734375" style="1"/>
+    <col min="11532" max="11532" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.83203125" style="1"/>
     <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
     <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11789" max="12034" width="8.77734375" style="1"/>
+    <col min="11788" max="11788" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.83203125" style="1"/>
     <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
     <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12290" width="8.77734375" style="1"/>
+    <col min="12044" max="12044" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.83203125" style="1"/>
     <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
     <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12546" width="8.77734375" style="1"/>
+    <col min="12300" max="12300" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.83203125" style="1"/>
     <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
     <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12802" width="8.77734375" style="1"/>
+    <col min="12556" max="12556" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.83203125" style="1"/>
     <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
     <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12813" max="13058" width="8.77734375" style="1"/>
+    <col min="12812" max="12812" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.83203125" style="1"/>
     <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
     <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13314" width="8.77734375" style="1"/>
+    <col min="13068" max="13068" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.83203125" style="1"/>
     <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
     <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13570" width="8.77734375" style="1"/>
+    <col min="13324" max="13324" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.83203125" style="1"/>
     <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
     <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13826" width="8.77734375" style="1"/>
+    <col min="13580" max="13580" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.83203125" style="1"/>
     <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
     <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13837" max="14082" width="8.77734375" style="1"/>
+    <col min="13836" max="13836" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.83203125" style="1"/>
     <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
     <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14338" width="8.77734375" style="1"/>
+    <col min="14092" max="14092" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.83203125" style="1"/>
     <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
     <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14594" width="8.77734375" style="1"/>
+    <col min="14348" max="14348" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.83203125" style="1"/>
     <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
     <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14850" width="8.77734375" style="1"/>
+    <col min="14604" max="14604" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.83203125" style="1"/>
     <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
     <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14861" max="15106" width="8.77734375" style="1"/>
+    <col min="14860" max="14860" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.83203125" style="1"/>
     <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
     <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15362" width="8.77734375" style="1"/>
+    <col min="15116" max="15116" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.83203125" style="1"/>
     <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
     <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15618" width="8.77734375" style="1"/>
+    <col min="15372" max="15372" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.83203125" style="1"/>
     <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
     <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15874" width="8.77734375" style="1"/>
+    <col min="15628" max="15628" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.83203125" style="1"/>
     <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
     <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15885" max="16130" width="8.77734375" style="1"/>
+    <col min="15884" max="15884" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.83203125" style="1"/>
     <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
     <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16384" width="8.77734375" style="1"/>
+    <col min="16140" max="16140" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" ht="20" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
@@ -3011,7 +3015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" ht="20" customHeight="1">
       <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
@@ -3032,7 +3036,7 @@
       <c r="K3" s="36"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
@@ -3047,7 +3051,7 @@
       <c r="K4" s="27"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3082,7 +3086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -3096,7 +3100,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
@@ -3107,7 +3111,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B7" s="9">
         <v>2</v>
       </c>
@@ -3121,7 +3125,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>22</v>
@@ -3132,7 +3136,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B8" s="9">
         <v>3</v>
       </c>
@@ -3146,16 +3150,18 @@
         <v>30</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G8" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="20" customHeight="1">
       <c r="B9" s="9">
         <v>4</v>
       </c>
@@ -3170,7 +3176,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" ht="20" customHeight="1">
       <c r="B10" s="9">
         <v>5</v>
       </c>
@@ -3185,7 +3191,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" ht="20" customHeight="1">
       <c r="B11" s="9">
         <v>6</v>
       </c>
@@ -3200,7 +3206,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" ht="20" customHeight="1">
       <c r="B12" s="9">
         <v>7</v>
       </c>
@@ -3215,7 +3221,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" ht="20" customHeight="1">
       <c r="B13" s="9">
         <v>8</v>
       </c>
@@ -3230,7 +3236,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" ht="20" customHeight="1">
       <c r="B14" s="9">
         <v>9</v>
       </c>
@@ -3245,7 +3251,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" ht="20" customHeight="1">
       <c r="B15" s="9">
         <v>10</v>
       </c>
@@ -3260,7 +3266,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" ht="20" customHeight="1">
       <c r="B16" s="9">
         <v>11</v>
       </c>
@@ -3275,7 +3281,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="18"/>
     </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" ht="20" customHeight="1">
       <c r="B17" s="9">
         <v>12</v>
       </c>
@@ -3290,7 +3296,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="18"/>
     </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" ht="20" customHeight="1">
       <c r="B18" s="9">
         <v>13</v>
       </c>
@@ -3305,7 +3311,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="18"/>
     </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" ht="20" customHeight="1">
       <c r="B19" s="9">
         <v>14</v>
       </c>
@@ -3320,7 +3326,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="18"/>
     </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" ht="20" customHeight="1">
       <c r="B20" s="9">
         <v>15</v>
       </c>
@@ -3335,7 +3341,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="16"/>
     </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B21" s="11">
         <v>16</v>
       </c>
@@ -3374,816 +3380,816 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
     <col min="2" max="2" width="37.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.77734375" style="25"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="25">
         <v>700</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="25">
         <v>701</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C2" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="25">
         <v>702</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C3" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="25">
         <v>703</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C4" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="25">
         <v>704</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C5" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="25">
         <v>705</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C6" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="25">
         <v>706</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C7" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="25">
         <v>707</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C8" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="25">
         <v>708</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C9" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="25">
         <v>709</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C10" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="25">
         <v>710</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C11" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="25">
         <v>711</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C12" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="25">
         <v>712</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C13" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="25">
         <v>713</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C14" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="25">
         <v>714</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C15" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="25">
         <v>715</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C16" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="25">
         <v>716</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C17" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="25">
         <v>717</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C18" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="25">
         <v>718</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C19" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="25">
         <v>719</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="25">
         <v>720</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C21" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="25">
         <v>721</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C22" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="20">
       <c r="A23" s="25">
         <v>722</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C23" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="25">
         <v>723</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C24" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="25">
         <v>724</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C25" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="25">
         <v>725</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C26" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="25">
         <v>726</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C27" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="20">
       <c r="A28" s="25">
         <v>727</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C28" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="25">
         <v>728</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C29" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="25">
         <v>729</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C30" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="25">
         <v>730</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="20">
       <c r="A32" s="25">
         <v>731</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C32" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="25">
         <v>732</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C33" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="20">
       <c r="A34" s="25">
         <v>733</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C34" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="25">
         <v>734</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C35" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="25">
         <v>735</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C36" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="25">
         <v>736</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C37" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="25">
         <v>700</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="25">
         <v>701</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C39" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="25">
         <v>702</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C40" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="25">
         <v>703</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C41" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="25">
         <v>704</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C42" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="25">
         <v>705</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C43" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="25">
         <v>706</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C44" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="25">
         <v>707</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C45" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="25">
         <v>708</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C46" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="25">
         <v>709</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C47" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" s="25">
         <v>710</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C48" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="25">
         <v>711</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C49" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" s="25">
         <v>712</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C50" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" s="25">
         <v>713</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C51" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="25">
         <v>714</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C52" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="25">
         <v>715</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C53" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="25">
         <v>716</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C54" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" s="25">
         <v>717</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C55" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56" s="25">
         <v>718</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C56" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" s="25">
         <v>719</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C57" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" s="25">
         <v>720</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C58" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="25">
         <v>721</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C59" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="20">
       <c r="A60" s="25">
         <v>722</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C60" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" s="25">
         <v>723</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C61" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3">
       <c r="A62" s="25">
         <v>724</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C62" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" s="25">
         <v>725</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C63" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" s="25">
         <v>726</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C64" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="20">
       <c r="A65" s="25">
         <v>727</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C65" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="25">
         <v>728</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C66" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" s="25">
         <v>729</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C67" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" s="25">
         <v>730</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C68" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="20.100000000000001" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="20">
       <c r="A69" s="25">
         <v>731</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C69" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="25">
         <v>732</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C70" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="20.100000000000001" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="20">
       <c r="A71" s="25">
         <v>733</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C71" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" s="25">
         <v>734</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C72" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="25">
         <v>735</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C73" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="25">
         <v>736</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C74" s="25">
         <v>700</v>
@@ -4203,181 +4209,181 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="25"/>
-    <col min="2" max="2" width="33.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.77734375" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="33.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="25">
         <v>800</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="25">
         <v>801</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="25">
         <v>802</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="25">
         <v>803</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="25">
         <v>804</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="25">
         <v>805</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="25">
         <v>806</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="25">
         <v>807</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="25">
         <v>808</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="25">
         <v>809</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="25">
         <v>810</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="25">
         <v>811</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="25">
         <v>812</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="25">
         <v>813</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="25">
         <v>814</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C15" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="25">
         <v>815</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C16" s="25">
         <v>800</v>
@@ -4397,170 +4403,170 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
     <col min="2" max="2" width="24.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.77734375" style="25"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="25">
         <v>900</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="25">
         <v>901</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="25">
         <v>902</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="25">
         <v>903</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="25">
         <v>904</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="25">
         <v>905</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="25">
         <v>906</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="25">
         <v>907</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="25">
         <v>908</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="25">
         <v>909</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="25">
         <v>910</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="25">
         <v>911</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="25">
         <v>912</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="25">
         <v>913</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="25">
         <v>914</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C15" s="25">
         <v>900</v>
@@ -4580,865 +4586,865 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18">
       <c r="A2" s="22">
         <v>100</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18">
       <c r="A3" s="22">
         <v>101</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
       <c r="A4" s="22">
         <v>102</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="22">
         <v>103</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18">
       <c r="A6" s="22">
         <v>104</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18">
       <c r="A7" s="22">
         <v>105</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18">
       <c r="A8" s="22">
         <v>106</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18">
       <c r="A9" s="22">
         <v>107</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18">
       <c r="A10" s="22">
         <v>108</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18">
       <c r="A11" s="22">
         <v>109</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="22">
         <v>110</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18">
       <c r="A13" s="22">
         <v>200</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="22">
         <v>201</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18">
       <c r="A15" s="22">
         <v>202</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18">
       <c r="A16" s="22">
         <v>300</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20">
       <c r="A17" s="22">
         <v>301</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20">
       <c r="A18" s="22">
         <v>302</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20">
       <c r="A19" s="22">
         <v>303</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20">
       <c r="A20" s="22">
         <v>304</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20">
       <c r="A21" s="22">
         <v>305</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20">
       <c r="A22" s="22">
         <v>306</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20">
       <c r="A23" s="22">
         <v>307</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="20">
       <c r="A24" s="22">
         <v>308</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="20">
       <c r="A25" s="22">
         <v>309</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="20">
       <c r="A26" s="22">
         <v>310</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="20">
       <c r="A27" s="22">
         <v>311</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="20">
       <c r="A28" s="22">
         <v>312</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18">
       <c r="A29" s="22">
         <v>313</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18">
       <c r="A30" s="22">
         <v>314</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="20">
       <c r="A31" s="22">
         <v>315</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="20">
       <c r="A32" s="22">
         <v>316</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18">
       <c r="A33" s="22">
         <v>317</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="20">
       <c r="A34" s="22">
         <v>318</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="20.100000000000001" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="20">
       <c r="A35" s="22">
         <v>319</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18">
       <c r="A36" s="22">
         <v>320</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18">
       <c r="A37" s="22">
         <v>321</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="20.100000000000001" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="20">
       <c r="A38" s="22">
         <v>322</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18">
       <c r="A39" s="22">
         <v>323</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="20.100000000000001" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="20">
       <c r="A40" s="22">
         <v>324</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="20.100000000000001" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="20">
       <c r="A41" s="22">
         <v>325</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18">
       <c r="A42" s="22">
         <v>326</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18">
       <c r="A43" s="22">
         <v>327</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="20.100000000000001" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="20">
       <c r="A44" s="22">
         <v>328</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="20.100000000000001" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="20">
       <c r="A45" s="22">
         <v>329</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="20.100000000000001" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="20">
       <c r="A46" s="22">
         <v>330</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="20.100000000000001" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="20">
       <c r="A47" s="22">
         <v>331</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18">
       <c r="A48" s="22">
         <v>400</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18">
       <c r="A49" s="22">
         <v>401</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18">
       <c r="A50" s="22">
         <v>402</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18">
       <c r="A51" s="22">
         <v>403</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18">
       <c r="A52" s="22">
         <v>404</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18">
       <c r="A53" s="22">
         <v>405</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18">
       <c r="A54" s="22">
         <v>406</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18">
       <c r="A55" s="22">
         <v>407</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18">
       <c r="A56" s="22">
         <v>408</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18">
       <c r="A57" s="22">
         <v>409</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18">
       <c r="A58" s="22">
         <v>410</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18">
       <c r="A59" s="22">
         <v>411</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18">
       <c r="A60" s="22">
         <v>412</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18">
       <c r="A61" s="22">
         <v>413</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18">
       <c r="A62" s="22">
         <v>414</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18">
       <c r="A63" s="22">
         <v>415</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18">
       <c r="A64" s="22">
         <v>416</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18">
       <c r="A65" s="22">
         <v>500</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18">
       <c r="A66" s="22">
         <v>501</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18">
       <c r="A67" s="22">
         <v>502</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18">
       <c r="A68" s="22">
         <v>503</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18">
       <c r="A69" s="22">
         <v>504</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18">
       <c r="A70" s="22">
         <v>505</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="18">
       <c r="A71" s="22">
         <v>506</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="18">
       <c r="A72" s="22">
         <v>507</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="18">
       <c r="A73" s="22">
         <v>600</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="18">
       <c r="A74" s="22">
         <v>601</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="18">
       <c r="A75" s="22">
         <v>602</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18">
       <c r="A76" s="22">
         <v>603</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="18">
       <c r="A77" s="22">
         <v>800</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="18">
       <c r="A78" s="22">
         <v>801</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="18">
       <c r="A79" s="22">
         <v>802</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18">
       <c r="A80" s="22">
         <v>803</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="18">
       <c r="A81" s="22">
         <v>804</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="18">
       <c r="A82" s="22">
         <v>805</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="18">
       <c r="A83" s="22">
         <v>806</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="18">
       <c r="A84" s="22">
         <v>807</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="18">
       <c r="A85" s="22">
         <v>808</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="18">
       <c r="A86" s="22">
         <v>809</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="18">
       <c r="A87" s="22">
         <v>810</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="18">
       <c r="A88" s="22">
         <v>811</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="18">
       <c r="A89" s="22">
         <v>812</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="18">
       <c r="A90" s="22">
         <v>813</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="18">
       <c r="A91" s="22">
         <v>814</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="18">
       <c r="A92" s="22">
         <v>815</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="18">
       <c r="A93" s="22">
         <v>900</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="18">
       <c r="A94" s="22">
         <v>901</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="18">
       <c r="A95" s="22">
         <v>902</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="18">
       <c r="A96" s="22">
         <v>903</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="18">
       <c r="A97" s="22">
         <v>904</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="18">
       <c r="A98" s="22">
         <v>905</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="18">
       <c r="A99" s="22">
         <v>906</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="18">
       <c r="A100" s="22">
         <v>907</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="18">
       <c r="A101" s="22">
         <v>908</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="18">
       <c r="A102" s="22">
         <v>909</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="18">
       <c r="A103" s="22">
         <v>910</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="18">
       <c r="A104" s="22">
         <v>911</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="18">
       <c r="A105" s="22">
         <v>912</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="18">
       <c r="A106" s="22">
         <v>913</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="18">
       <c r="A107" s="22">
         <v>914</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5455,86 +5461,86 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="18">
       <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:2" ht="18">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B2" s="22">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="18">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B3" s="22">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="18">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B4" s="22">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B5" s="24">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="18">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6" s="22">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="18">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B7" s="22">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="18">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B8" s="22">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="18">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B9" s="22">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="18">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B10" s="22">
         <v>900</v>
@@ -5554,127 +5560,127 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="25"/>
-    <col min="2" max="2" width="29.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="10.77734375" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="29.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="25" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="25">
         <v>100</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="25">
         <v>101</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="25">
         <v>102</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C3" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="25">
         <v>103</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="25">
         <v>104</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="25">
         <v>105</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="25">
         <v>106</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="25">
         <v>107</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="25">
         <v>108</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="25">
         <v>109</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="25">
         <v>110</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="25">
         <v>100</v>
@@ -5694,45 +5700,45 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="10.77734375" style="25"/>
-    <col min="4" max="4" width="10.109375" style="25" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="25"/>
+    <col min="4" max="4" width="10.1640625" style="25" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="25"/>
+    <col min="6" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>163</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>162</v>
       </c>
       <c r="D1" s="25">
         <v>200</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="D2" s="25">
         <v>201</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F2" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="D3" s="25">
         <v>202</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F3" s="25">
         <v>200</v>
@@ -5752,357 +5758,357 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="25"/>
-    <col min="2" max="2" width="36.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.77734375" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="36.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="25">
         <v>300</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20">
       <c r="A2" s="25">
         <v>301</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="20">
       <c r="A3" s="25">
         <v>302</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="20">
       <c r="A4" s="25">
         <v>303</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="20">
       <c r="A5" s="25">
         <v>304</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="20">
       <c r="A6" s="25">
         <v>305</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C6" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="20">
       <c r="A7" s="25">
         <v>306</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C7" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="20">
       <c r="A8" s="25">
         <v>307</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="20">
       <c r="A9" s="25">
         <v>308</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C9" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="20">
       <c r="A10" s="25">
         <v>309</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C10" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="20">
       <c r="A11" s="25">
         <v>310</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C11" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="20">
       <c r="A12" s="25">
         <v>311</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C12" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="20">
       <c r="A13" s="25">
         <v>312</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C13" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="25">
         <v>313</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="25">
         <v>314</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="20">
       <c r="A16" s="25">
         <v>315</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="20">
       <c r="A17" s="25">
         <v>316</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="25">
         <v>317</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C18" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="20">
       <c r="A19" s="25">
         <v>318</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C19" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="20">
       <c r="A20" s="25">
         <v>319</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="25">
         <v>320</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C21" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="25">
         <v>321</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C22" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="20">
       <c r="A23" s="25">
         <v>322</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C23" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="25">
         <v>323</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C24" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="20">
       <c r="A25" s="25">
         <v>324</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C25" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="20">
       <c r="A26" s="25">
         <v>325</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C26" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="25">
         <v>326</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C27" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="25">
         <v>327</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C28" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="20">
       <c r="A29" s="25">
         <v>328</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C29" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="20">
       <c r="A30" s="25">
         <v>329</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C30" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="20">
       <c r="A31" s="25">
         <v>330</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C31" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="20">
       <c r="A32" s="25">
         <v>331</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C32" s="25">
         <v>300</v>
@@ -6122,192 +6128,192 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="25"/>
-    <col min="2" max="2" width="36.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.77734375" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="36.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="25">
         <v>400</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="25">
         <v>401</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C2" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="25">
         <v>402</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C3" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="25">
         <v>403</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C4" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="25">
         <v>404</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C5" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="25">
         <v>405</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C6" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="25">
         <v>406</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C7" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="25">
         <v>407</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C8" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="25">
         <v>408</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C9" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="25">
         <v>409</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C10" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="25">
         <v>410</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C11" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="25">
         <v>411</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="25">
         <v>412</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C13" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="25">
         <v>413</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C14" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="25">
         <v>414</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C15" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="25">
         <v>415</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16" s="25">
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="25">
         <v>416</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="25">
         <v>400</v>
@@ -6327,93 +6333,93 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
     <col min="2" max="2" width="31.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.77734375" style="25"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="25">
         <v>500</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="25">
         <v>501</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C2" s="25">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="25">
         <v>502</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C3" s="25">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="25">
         <v>503</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C4" s="25">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="25">
         <v>504</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C5" s="25">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="25">
         <v>505</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C6" s="25">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="25">
         <v>506</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C7" s="25">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="25">
         <v>507</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C8" s="25">
         <v>500</v>
@@ -6433,49 +6439,49 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="25"/>
-    <col min="2" max="2" width="32.44140625" style="25" customWidth="1"/>
-    <col min="3" max="16384" width="10.77734375" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="32.5" style="25" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="25">
         <v>600</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="25">
         <v>601</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C2" s="25">
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="25">
         <v>602</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C3" s="25">
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="25">
         <v>603</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C4" s="25">
         <v>600</v>

--- a/spMVC_200_Team/DBMS/테이블명세와정보.xlsx
+++ b/spMVC_200_Team/DBMS/테이블명세와정보.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimsojeong/work/springMVC/Biz_2021_06_springMVC/spMVC_200_Team/DBMS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\spring-MVC\spMVC_200_Team\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FAB998-FC50-9D45-B2BF-19DD714BB766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C61150-EDE4-4F6F-A1BD-A895ECD5AC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="500" windowWidth="18260" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
@@ -941,7 +941,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -2338,659 +2338,659 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="258" width="8.83203125" style="1"/>
-    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
-    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="258" width="8.796875" style="1"/>
+    <col min="259" max="259" width="1.296875" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="261" max="261" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="268" max="268" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="269" max="514" width="8.83203125" style="1"/>
-    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
-    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.796875" style="1"/>
+    <col min="515" max="515" width="1.296875" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="517" max="517" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="524" max="524" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="525" max="770" width="8.83203125" style="1"/>
-    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
-    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.796875" style="1"/>
+    <col min="771" max="771" width="1.296875" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="773" max="773" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="780" max="780" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="781" max="1026" width="8.83203125" style="1"/>
-    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.796875" style="1"/>
+    <col min="1027" max="1027" width="1.296875" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="1029" max="1029" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="1036" max="1036" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1282" width="8.83203125" style="1"/>
-    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.796875" style="1"/>
+    <col min="1283" max="1283" width="1.296875" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="1285" max="1285" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="1292" max="1292" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1538" width="8.83203125" style="1"/>
-    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.796875" style="1"/>
+    <col min="1539" max="1539" width="1.296875" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="1541" max="1541" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="1548" max="1548" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1794" width="8.83203125" style="1"/>
-    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.796875" style="1"/>
+    <col min="1795" max="1795" width="1.296875" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="1797" max="1797" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="1804" max="1804" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1805" max="2050" width="8.83203125" style="1"/>
-    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.796875" style="1"/>
+    <col min="2051" max="2051" width="1.296875" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2053" max="2053" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2060" max="2060" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2306" width="8.83203125" style="1"/>
-    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.796875" style="1"/>
+    <col min="2307" max="2307" width="1.296875" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2309" max="2309" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2316" max="2316" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2562" width="8.83203125" style="1"/>
-    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.796875" style="1"/>
+    <col min="2563" max="2563" width="1.296875" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2565" max="2565" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2572" max="2572" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2818" width="8.83203125" style="1"/>
-    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.796875" style="1"/>
+    <col min="2819" max="2819" width="1.296875" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2821" max="2821" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2828" max="2828" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2829" max="3074" width="8.83203125" style="1"/>
-    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.796875" style="1"/>
+    <col min="3075" max="3075" width="1.296875" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3077" max="3077" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3084" max="3084" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3330" width="8.83203125" style="1"/>
-    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.796875" style="1"/>
+    <col min="3331" max="3331" width="1.296875" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3333" max="3333" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3340" max="3340" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3586" width="8.83203125" style="1"/>
-    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.796875" style="1"/>
+    <col min="3587" max="3587" width="1.296875" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3589" max="3589" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3596" max="3596" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3842" width="8.83203125" style="1"/>
-    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.796875" style="1"/>
+    <col min="3843" max="3843" width="1.296875" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3845" max="3845" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3852" max="3852" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3853" max="4098" width="8.83203125" style="1"/>
-    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.796875" style="1"/>
+    <col min="4099" max="4099" width="1.296875" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4101" max="4101" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4108" max="4108" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4354" width="8.83203125" style="1"/>
-    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.796875" style="1"/>
+    <col min="4355" max="4355" width="1.296875" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4357" max="4357" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4364" max="4364" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4610" width="8.83203125" style="1"/>
-    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.796875" style="1"/>
+    <col min="4611" max="4611" width="1.296875" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4613" max="4613" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4620" max="4620" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4866" width="8.83203125" style="1"/>
-    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.796875" style="1"/>
+    <col min="4867" max="4867" width="1.296875" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4869" max="4869" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4876" max="4876" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4877" max="5122" width="8.83203125" style="1"/>
-    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.796875" style="1"/>
+    <col min="5123" max="5123" width="1.296875" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5125" max="5125" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5132" max="5132" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5378" width="8.83203125" style="1"/>
-    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.796875" style="1"/>
+    <col min="5379" max="5379" width="1.296875" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5381" max="5381" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5388" max="5388" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5634" width="8.83203125" style="1"/>
-    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.796875" style="1"/>
+    <col min="5635" max="5635" width="1.296875" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5637" max="5637" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5644" max="5644" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5890" width="8.83203125" style="1"/>
-    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.796875" style="1"/>
+    <col min="5891" max="5891" width="1.296875" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5893" max="5893" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5900" max="5900" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5901" max="6146" width="8.83203125" style="1"/>
-    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.796875" style="1"/>
+    <col min="6147" max="6147" width="1.296875" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6149" max="6149" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6156" max="6156" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6402" width="8.83203125" style="1"/>
-    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.796875" style="1"/>
+    <col min="6403" max="6403" width="1.296875" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6405" max="6405" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6412" max="6412" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6658" width="8.83203125" style="1"/>
-    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.796875" style="1"/>
+    <col min="6659" max="6659" width="1.296875" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6661" max="6661" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6668" max="6668" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6914" width="8.83203125" style="1"/>
-    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.796875" style="1"/>
+    <col min="6915" max="6915" width="1.296875" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6917" max="6917" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6924" max="6924" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6925" max="7170" width="8.83203125" style="1"/>
-    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.796875" style="1"/>
+    <col min="7171" max="7171" width="1.296875" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7173" max="7173" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7180" max="7180" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7426" width="8.83203125" style="1"/>
-    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.796875" style="1"/>
+    <col min="7427" max="7427" width="1.296875" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7429" max="7429" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7436" max="7436" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7682" width="8.83203125" style="1"/>
-    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.796875" style="1"/>
+    <col min="7683" max="7683" width="1.296875" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7685" max="7685" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7692" max="7692" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7938" width="8.83203125" style="1"/>
-    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.796875" style="1"/>
+    <col min="7939" max="7939" width="1.296875" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7941" max="7941" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7948" max="7948" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7949" max="8194" width="8.83203125" style="1"/>
-    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.796875" style="1"/>
+    <col min="8195" max="8195" width="1.296875" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8197" max="8197" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8204" max="8204" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8450" width="8.83203125" style="1"/>
-    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.796875" style="1"/>
+    <col min="8451" max="8451" width="1.296875" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8453" max="8453" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8460" max="8460" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8706" width="8.83203125" style="1"/>
-    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.796875" style="1"/>
+    <col min="8707" max="8707" width="1.296875" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8709" max="8709" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8716" max="8716" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8962" width="8.83203125" style="1"/>
-    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.796875" style="1"/>
+    <col min="8963" max="8963" width="1.296875" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8965" max="8965" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8972" max="8972" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8973" max="9218" width="8.83203125" style="1"/>
-    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.796875" style="1"/>
+    <col min="9219" max="9219" width="1.296875" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9221" max="9221" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9228" max="9228" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9474" width="8.83203125" style="1"/>
-    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.796875" style="1"/>
+    <col min="9475" max="9475" width="1.296875" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9477" max="9477" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9484" max="9484" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9730" width="8.83203125" style="1"/>
-    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.796875" style="1"/>
+    <col min="9731" max="9731" width="1.296875" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9733" max="9733" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9740" max="9740" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9986" width="8.83203125" style="1"/>
-    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.796875" style="1"/>
+    <col min="9987" max="9987" width="1.296875" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9989" max="9989" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9996" max="9996" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9997" max="10242" width="8.83203125" style="1"/>
-    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.796875" style="1"/>
+    <col min="10243" max="10243" width="1.296875" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10245" max="10245" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="10252" max="10252" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10498" width="8.83203125" style="1"/>
-    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.796875" style="1"/>
+    <col min="10499" max="10499" width="1.296875" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10501" max="10501" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="10508" max="10508" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10754" width="8.83203125" style="1"/>
-    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.796875" style="1"/>
+    <col min="10755" max="10755" width="1.296875" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10757" max="10757" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="10764" max="10764" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10765" max="11010" width="8.83203125" style="1"/>
-    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.796875" style="1"/>
+    <col min="11011" max="11011" width="1.296875" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11013" max="11013" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11020" max="11020" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11266" width="8.83203125" style="1"/>
-    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.796875" style="1"/>
+    <col min="11267" max="11267" width="1.296875" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11269" max="11269" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11276" max="11276" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11522" width="8.83203125" style="1"/>
-    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.796875" style="1"/>
+    <col min="11523" max="11523" width="1.296875" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11525" max="11525" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11532" max="11532" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11778" width="8.83203125" style="1"/>
-    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.796875" style="1"/>
+    <col min="11779" max="11779" width="1.296875" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11781" max="11781" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11788" max="11788" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11789" max="12034" width="8.83203125" style="1"/>
-    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.796875" style="1"/>
+    <col min="12035" max="12035" width="1.296875" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12037" max="12037" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="12044" max="12044" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12290" width="8.83203125" style="1"/>
-    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.796875" style="1"/>
+    <col min="12291" max="12291" width="1.296875" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12293" max="12293" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="12300" max="12300" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12546" width="8.83203125" style="1"/>
-    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.796875" style="1"/>
+    <col min="12547" max="12547" width="1.296875" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12549" max="12549" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="12556" max="12556" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12802" width="8.83203125" style="1"/>
-    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.796875" style="1"/>
+    <col min="12803" max="12803" width="1.296875" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12805" max="12805" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="12812" max="12812" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12813" max="13058" width="8.83203125" style="1"/>
-    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.796875" style="1"/>
+    <col min="13059" max="13059" width="1.296875" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="13061" max="13061" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="13068" max="13068" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13314" width="8.83203125" style="1"/>
-    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.796875" style="1"/>
+    <col min="13315" max="13315" width="1.296875" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="13317" max="13317" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="13324" max="13324" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13570" width="8.83203125" style="1"/>
-    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.796875" style="1"/>
+    <col min="13571" max="13571" width="1.296875" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="13573" max="13573" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="13580" max="13580" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13826" width="8.83203125" style="1"/>
-    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.796875" style="1"/>
+    <col min="13827" max="13827" width="1.296875" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="13829" max="13829" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="13836" max="13836" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13837" max="14082" width="8.83203125" style="1"/>
-    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.796875" style="1"/>
+    <col min="14083" max="14083" width="1.296875" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14085" max="14085" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="14092" max="14092" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14338" width="8.83203125" style="1"/>
-    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.796875" style="1"/>
+    <col min="14339" max="14339" width="1.296875" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14341" max="14341" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="14348" max="14348" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14594" width="8.83203125" style="1"/>
-    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.796875" style="1"/>
+    <col min="14595" max="14595" width="1.296875" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14597" max="14597" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="14604" max="14604" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14850" width="8.83203125" style="1"/>
-    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.796875" style="1"/>
+    <col min="14851" max="14851" width="1.296875" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14853" max="14853" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="14860" max="14860" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14861" max="15106" width="8.83203125" style="1"/>
-    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.796875" style="1"/>
+    <col min="15107" max="15107" width="1.296875" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="15109" max="15109" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="15116" max="15116" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15362" width="8.83203125" style="1"/>
-    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.796875" style="1"/>
+    <col min="15363" max="15363" width="1.296875" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="15365" max="15365" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="15372" max="15372" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15618" width="8.83203125" style="1"/>
-    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.796875" style="1"/>
+    <col min="15619" max="15619" width="1.296875" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="15621" max="15621" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="15628" max="15628" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15874" width="8.83203125" style="1"/>
-    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.796875" style="1"/>
+    <col min="15875" max="15875" width="1.296875" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="15877" max="15877" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="15884" max="15884" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15885" max="16130" width="8.83203125" style="1"/>
-    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.796875" style="1"/>
+    <col min="16131" max="16131" width="1.296875" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="16133" max="16133" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="16140" max="16140" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16384" width="8.83203125" style="1"/>
+    <col min="16141" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:12" ht="20" customHeight="1" thickBot="1">
+    <row r="1" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="20" customHeight="1">
+    <row r="3" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="K3" s="36"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="2:12" ht="20" customHeight="1" thickBot="1">
+    <row r="4" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="K4" s="27"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="2:12" ht="20" customHeight="1" thickBot="1">
+    <row r="5" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20" customHeight="1" thickBot="1">
+    <row r="6" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -3111,7 +3111,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:12" ht="20" customHeight="1" thickBot="1">
+    <row r="7" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>2</v>
       </c>
@@ -3136,7 +3136,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="2:12" ht="20" customHeight="1" thickBot="1">
+    <row r="8" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>3</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:12" ht="20" customHeight="1">
+    <row r="9" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>4</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="2:12" ht="20" customHeight="1">
+    <row r="10" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>5</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="2:12" ht="20" customHeight="1">
+    <row r="11" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>6</v>
       </c>
@@ -3206,7 +3206,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="2:12" ht="20" customHeight="1">
+    <row r="12" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>7</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="2:12" ht="20" customHeight="1">
+    <row r="13" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>8</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="14" spans="2:12" ht="20" customHeight="1">
+    <row r="14" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>9</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="2:12" ht="20" customHeight="1">
+    <row r="15" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>10</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="2:12" ht="20" customHeight="1">
+    <row r="16" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>11</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="18"/>
     </row>
-    <row r="17" spans="2:12" ht="20" customHeight="1">
+    <row r="17" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>12</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="18"/>
     </row>
-    <row r="18" spans="2:12" ht="20" customHeight="1">
+    <row r="18" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>13</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="18"/>
     </row>
-    <row r="19" spans="2:12" ht="20" customHeight="1">
+    <row r="19" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>14</v>
       </c>
@@ -3326,7 +3326,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="18"/>
     </row>
-    <row r="20" spans="2:12" ht="20" customHeight="1">
+    <row r="20" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>15</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="16"/>
     </row>
-    <row r="21" spans="2:12" ht="20" customHeight="1" thickBot="1">
+    <row r="21" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>16</v>
       </c>
@@ -3380,14 +3380,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="25"/>
-    <col min="2" max="2" width="37.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="25"/>
+    <col min="1" max="1" width="10.796875" style="25"/>
+    <col min="2" max="2" width="37.69921875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.796875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
         <v>700</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>701</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>702</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>703</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>704</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>705</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>706</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>707</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>708</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>709</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>710</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>711</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>712</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>713</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>714</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>715</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>716</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>717</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>718</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>719</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>720</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>721</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20">
+    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>722</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>723</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>724</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>725</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>726</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20">
+    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>727</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>728</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>729</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>730</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20">
+    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>731</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>732</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20">
+    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>733</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>734</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>735</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <v>736</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>700</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <v>701</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
         <v>702</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>703</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <v>704</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
         <v>705</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="25">
         <v>706</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
         <v>707</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>708</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>709</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>710</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
         <v>711</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
         <v>712</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="25">
         <v>713</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>714</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
         <v>715</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
         <v>716</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
         <v>717</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>718</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>719</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>720</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
         <v>721</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="20">
+    <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
         <v>722</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
         <v>723</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
         <v>724</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>725</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <v>726</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="20">
+    <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <v>727</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
         <v>728</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>729</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
         <v>730</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="20">
+    <row r="69" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
         <v>731</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
         <v>732</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="20">
+    <row r="71" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
         <v>733</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
         <v>734</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
         <v>735</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
         <v>736</v>
       </c>
@@ -4209,14 +4209,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="25"/>
-    <col min="2" max="2" width="33.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="25"/>
+    <col min="1" max="1" width="10.796875" style="25"/>
+    <col min="2" max="2" width="33.796875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.796875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
         <v>800</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>801</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>802</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>803</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>804</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>805</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>806</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>807</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>808</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>809</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>810</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>811</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>812</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>813</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>814</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>815</v>
       </c>
@@ -4403,14 +4403,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="25"/>
-    <col min="2" max="2" width="24.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="25"/>
+    <col min="1" max="1" width="10.796875" style="25"/>
+    <col min="2" max="2" width="24.296875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.796875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
         <v>900</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>901</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>902</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>903</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>904</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>905</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>906</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>907</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>908</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>909</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>910</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>911</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>912</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>913</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>914</v>
       </c>
@@ -4582,16 +4582,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4330EC0-33D0-AC49-BDC4-7C407B89383F}">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18">
+    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>100</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18">
+    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>101</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18">
+    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>102</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>103</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18">
+    <row r="6" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>104</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18">
+    <row r="7" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>105</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18">
+    <row r="8" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>106</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
+    <row r="9" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>107</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18">
+    <row r="10" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>108</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18">
+    <row r="11" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>109</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>110</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18">
+    <row r="13" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>200</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18">
+    <row r="14" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>201</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18">
+    <row r="15" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>202</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18">
+    <row r="16" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>300</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20">
+    <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>301</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20">
+    <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>302</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20">
+    <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>303</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20">
+    <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>304</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20">
+    <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>305</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20">
+    <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>306</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20">
+    <row r="23" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>307</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20">
+    <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>308</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20">
+    <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>309</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20">
+    <row r="26" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>310</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20">
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>311</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="20">
+    <row r="28" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>312</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18">
+    <row r="29" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>313</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18">
+    <row r="30" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>314</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20">
+    <row r="31" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>315</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="20">
+    <row r="32" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>316</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18">
+    <row r="33" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>317</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="20">
+    <row r="34" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>318</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20">
+    <row r="35" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>319</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18">
+    <row r="36" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>320</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18">
+    <row r="37" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>321</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="20">
+    <row r="38" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>322</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18">
+    <row r="39" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>323</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="20">
+    <row r="40" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>324</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="20">
+    <row r="41" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>325</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18">
+    <row r="42" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>326</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18">
+    <row r="43" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>327</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="20">
+    <row r="44" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>328</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="20">
+    <row r="45" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>329</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="20">
+    <row r="46" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>330</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="20">
+    <row r="47" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>331</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18">
+    <row r="48" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>400</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18">
+    <row r="49" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>401</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18">
+    <row r="50" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>402</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18">
+    <row r="51" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>403</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18">
+    <row r="52" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>404</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18">
+    <row r="53" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>405</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18">
+    <row r="54" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>406</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18">
+    <row r="55" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>407</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18">
+    <row r="56" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>408</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18">
+    <row r="57" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>409</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="18">
+    <row r="58" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>410</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="18">
+    <row r="59" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>411</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18">
+    <row r="60" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
         <v>412</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="18">
+    <row r="61" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <v>413</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="18">
+    <row r="62" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
         <v>414</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18">
+    <row r="63" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <v>415</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18">
+    <row r="64" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>416</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="18">
+    <row r="65" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
         <v>500</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18">
+    <row r="66" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
         <v>501</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18">
+    <row r="67" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>502</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="18">
+    <row r="68" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A68" s="22">
         <v>503</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="18">
+    <row r="69" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <v>504</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18">
+    <row r="70" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
         <v>505</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="18">
+    <row r="71" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>506</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="18">
+    <row r="72" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>507</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="18">
+    <row r="73" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <v>600</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="18">
+    <row r="74" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <v>601</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="18">
+    <row r="75" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>602</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="18">
+    <row r="76" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>603</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="18">
+    <row r="77" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <v>800</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="18">
+    <row r="78" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
         <v>801</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="18">
+    <row r="79" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>802</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="18">
+    <row r="80" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
         <v>803</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="18">
+    <row r="81" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A81" s="22">
         <v>804</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="18">
+    <row r="82" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
         <v>805</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="18">
+    <row r="83" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A83" s="22">
         <v>806</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="18">
+    <row r="84" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A84" s="22">
         <v>807</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="18">
+    <row r="85" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
         <v>808</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="18">
+    <row r="86" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
         <v>809</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="18">
+    <row r="87" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>810</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="18">
+    <row r="88" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <v>811</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="18">
+    <row r="89" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
         <v>812</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="18">
+    <row r="90" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A90" s="22">
         <v>813</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18">
+    <row r="91" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A91" s="22">
         <v>814</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="18">
+    <row r="92" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A92" s="22">
         <v>815</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="18">
+    <row r="93" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
         <v>900</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="18">
+    <row r="94" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A94" s="22">
         <v>901</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="18">
+    <row r="95" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
         <v>902</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="18">
+    <row r="96" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
         <v>903</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="18">
+    <row r="97" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A97" s="22">
         <v>904</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="18">
+    <row r="98" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
         <v>905</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="18">
+    <row r="99" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A99" s="22">
         <v>906</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="18">
+    <row r="100" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
         <v>907</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="18">
+    <row r="101" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <v>908</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18">
+    <row r="102" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <v>909</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="18">
+    <row r="103" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
         <v>910</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="18">
+    <row r="104" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A104" s="22">
         <v>911</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="18">
+    <row r="105" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A105" s="22">
         <v>912</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="18">
+    <row r="106" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A106" s="22">
         <v>913</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="18">
+    <row r="107" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A107" s="22">
         <v>914</v>
       </c>
@@ -5461,12 +5461,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18">
+    <row r="1" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>150</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18">
+    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18">
+    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18">
+    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18">
+    <row r="6" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18">
+    <row r="7" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18">
+    <row r="8" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
+    <row r="9" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>147</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18">
+    <row r="10" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -5560,15 +5560,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="1" max="1" width="10.796875" style="25"/>
     <col min="2" max="2" width="29.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="25"/>
+    <col min="3" max="3" width="19.796875" style="25" customWidth="1"/>
+    <col min="4" max="16384" width="10.796875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
         <v>100</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>101</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>102</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>103</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>104</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>105</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>106</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>107</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>108</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>109</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>110</v>
       </c>
@@ -5700,15 +5700,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="25"/>
-    <col min="4" max="4" width="10.1640625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="25"/>
+    <col min="1" max="3" width="10.796875" style="25"/>
+    <col min="4" max="4" width="10.19921875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.796875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>164</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D2" s="25">
         <v>201</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" s="25">
         <v>202</v>
       </c>
@@ -5758,14 +5758,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="25"/>
-    <col min="2" max="2" width="36.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="25"/>
+    <col min="1" max="1" width="10.796875" style="25"/>
+    <col min="2" max="2" width="36.796875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.796875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
         <v>300</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>301</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>302</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20">
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>303</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20">
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>304</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20">
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>305</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20">
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>306</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20">
+    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>307</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20">
+    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>308</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20">
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>309</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20">
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>310</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20">
+    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>311</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20">
+    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>312</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>313</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>314</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20">
+    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>315</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20">
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>316</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>317</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20">
+    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>318</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>319</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>320</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>321</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20">
+    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>322</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>323</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20">
+    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>324</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20">
+    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>325</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>326</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>327</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20">
+    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>328</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20">
+    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>329</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20">
+    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>330</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20">
+    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>331</v>
       </c>
@@ -6128,14 +6128,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="25"/>
-    <col min="2" max="2" width="36.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="25"/>
+    <col min="1" max="1" width="10.796875" style="25"/>
+    <col min="2" max="2" width="36.796875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.796875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
         <v>400</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>401</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>402</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>403</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>404</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>405</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>406</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>407</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>408</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>409</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>410</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>411</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>412</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>413</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>414</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>415</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>416</v>
       </c>
@@ -6333,14 +6333,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="25"/>
-    <col min="2" max="2" width="31.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="25"/>
+    <col min="1" max="1" width="10.796875" style="25"/>
+    <col min="2" max="2" width="31.69921875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.796875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
         <v>500</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>501</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>502</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>503</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>504</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>505</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>506</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>507</v>
       </c>
@@ -6439,14 +6439,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="1" max="1" width="10.796875" style="25"/>
     <col min="2" max="2" width="32.5" style="25" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="25"/>
+    <col min="3" max="16384" width="10.796875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
         <v>600</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>601</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>602</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>603</v>
       </c>

--- a/spMVC_200_Team/DBMS/테이블명세와정보.xlsx
+++ b/spMVC_200_Team/DBMS/테이블명세와정보.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\spring-MVC\spMVC_200_Team\DBMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimsojeong/work/springMVC/Biz_2021_06_springMVC/spMVC_200_Team/DBMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C61150-EDE4-4F6F-A1BD-A895ECD5AC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FAB998-FC50-9D45-B2BF-19DD714BB766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="500" windowWidth="18260" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
@@ -941,7 +941,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -2338,659 +2338,659 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.19921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="258" width="8.796875" style="1"/>
-    <col min="259" max="259" width="1.296875" style="1" customWidth="1"/>
-    <col min="260" max="260" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="258" width="8.83203125" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="261" max="261" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="268" max="268" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="269" max="514" width="8.796875" style="1"/>
-    <col min="515" max="515" width="1.296875" style="1" customWidth="1"/>
-    <col min="516" max="516" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.83203125" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="517" max="517" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="524" max="524" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="525" max="770" width="8.796875" style="1"/>
-    <col min="771" max="771" width="1.296875" style="1" customWidth="1"/>
-    <col min="772" max="772" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.83203125" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="773" max="773" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="780" max="780" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="781" max="1026" width="8.796875" style="1"/>
-    <col min="1027" max="1027" width="1.296875" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.83203125" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="1029" max="1029" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="1036" max="1036" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1282" width="8.796875" style="1"/>
-    <col min="1283" max="1283" width="1.296875" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.83203125" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="1285" max="1285" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="1292" max="1292" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1538" width="8.796875" style="1"/>
-    <col min="1539" max="1539" width="1.296875" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.83203125" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="1541" max="1541" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="1548" max="1548" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1794" width="8.796875" style="1"/>
-    <col min="1795" max="1795" width="1.296875" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.83203125" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="1797" max="1797" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="1804" max="1804" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1805" max="2050" width="8.796875" style="1"/>
-    <col min="2051" max="2051" width="1.296875" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.83203125" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2053" max="2053" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2060" max="2060" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2306" width="8.796875" style="1"/>
-    <col min="2307" max="2307" width="1.296875" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.83203125" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2309" max="2309" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2316" max="2316" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2562" width="8.796875" style="1"/>
-    <col min="2563" max="2563" width="1.296875" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.83203125" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2565" max="2565" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2572" max="2572" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2818" width="8.796875" style="1"/>
-    <col min="2819" max="2819" width="1.296875" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.83203125" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2821" max="2821" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2828" max="2828" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2829" max="3074" width="8.796875" style="1"/>
-    <col min="3075" max="3075" width="1.296875" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.83203125" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3077" max="3077" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3084" max="3084" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3330" width="8.796875" style="1"/>
-    <col min="3331" max="3331" width="1.296875" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.83203125" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3333" max="3333" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3340" max="3340" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3586" width="8.796875" style="1"/>
-    <col min="3587" max="3587" width="1.296875" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.83203125" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3589" max="3589" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3596" max="3596" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3842" width="8.796875" style="1"/>
-    <col min="3843" max="3843" width="1.296875" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.83203125" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3845" max="3845" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3852" max="3852" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3853" max="4098" width="8.796875" style="1"/>
-    <col min="4099" max="4099" width="1.296875" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.83203125" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4101" max="4101" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4108" max="4108" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4354" width="8.796875" style="1"/>
-    <col min="4355" max="4355" width="1.296875" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.83203125" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4357" max="4357" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4364" max="4364" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4610" width="8.796875" style="1"/>
-    <col min="4611" max="4611" width="1.296875" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.83203125" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4613" max="4613" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4620" max="4620" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4866" width="8.796875" style="1"/>
-    <col min="4867" max="4867" width="1.296875" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.83203125" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4869" max="4869" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4876" max="4876" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4877" max="5122" width="8.796875" style="1"/>
-    <col min="5123" max="5123" width="1.296875" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.83203125" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5125" max="5125" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5132" max="5132" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5378" width="8.796875" style="1"/>
-    <col min="5379" max="5379" width="1.296875" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.83203125" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5381" max="5381" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5388" max="5388" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5634" width="8.796875" style="1"/>
-    <col min="5635" max="5635" width="1.296875" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.83203125" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5637" max="5637" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5644" max="5644" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5890" width="8.796875" style="1"/>
-    <col min="5891" max="5891" width="1.296875" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.83203125" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5893" max="5893" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5900" max="5900" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5901" max="6146" width="8.796875" style="1"/>
-    <col min="6147" max="6147" width="1.296875" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.83203125" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6149" max="6149" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6156" max="6156" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6402" width="8.796875" style="1"/>
-    <col min="6403" max="6403" width="1.296875" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.83203125" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6405" max="6405" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6412" max="6412" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6658" width="8.796875" style="1"/>
-    <col min="6659" max="6659" width="1.296875" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.83203125" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6661" max="6661" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6668" max="6668" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6914" width="8.796875" style="1"/>
-    <col min="6915" max="6915" width="1.296875" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.83203125" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6917" max="6917" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6924" max="6924" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6925" max="7170" width="8.796875" style="1"/>
-    <col min="7171" max="7171" width="1.296875" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.83203125" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7173" max="7173" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7180" max="7180" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7426" width="8.796875" style="1"/>
-    <col min="7427" max="7427" width="1.296875" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.83203125" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7429" max="7429" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7436" max="7436" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7682" width="8.796875" style="1"/>
-    <col min="7683" max="7683" width="1.296875" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.83203125" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7685" max="7685" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7692" max="7692" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7938" width="8.796875" style="1"/>
-    <col min="7939" max="7939" width="1.296875" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.83203125" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7941" max="7941" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7948" max="7948" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7949" max="8194" width="8.796875" style="1"/>
-    <col min="8195" max="8195" width="1.296875" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.83203125" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8197" max="8197" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8204" max="8204" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8450" width="8.796875" style="1"/>
-    <col min="8451" max="8451" width="1.296875" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.83203125" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8453" max="8453" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8460" max="8460" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8706" width="8.796875" style="1"/>
-    <col min="8707" max="8707" width="1.296875" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.83203125" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8709" max="8709" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8716" max="8716" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8962" width="8.796875" style="1"/>
-    <col min="8963" max="8963" width="1.296875" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.83203125" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8965" max="8965" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8972" max="8972" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8973" max="9218" width="8.796875" style="1"/>
-    <col min="9219" max="9219" width="1.296875" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.83203125" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9221" max="9221" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9228" max="9228" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9474" width="8.796875" style="1"/>
-    <col min="9475" max="9475" width="1.296875" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.83203125" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9477" max="9477" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9484" max="9484" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9730" width="8.796875" style="1"/>
-    <col min="9731" max="9731" width="1.296875" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.83203125" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9733" max="9733" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9740" max="9740" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9986" width="8.796875" style="1"/>
-    <col min="9987" max="9987" width="1.296875" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.83203125" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9989" max="9989" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9996" max="9996" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9997" max="10242" width="8.796875" style="1"/>
-    <col min="10243" max="10243" width="1.296875" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.83203125" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10245" max="10245" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10252" max="10252" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10498" width="8.796875" style="1"/>
-    <col min="10499" max="10499" width="1.296875" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.83203125" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10501" max="10501" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10508" max="10508" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10754" width="8.796875" style="1"/>
-    <col min="10755" max="10755" width="1.296875" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.83203125" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10757" max="10757" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10764" max="10764" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10765" max="11010" width="8.796875" style="1"/>
-    <col min="11011" max="11011" width="1.296875" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.83203125" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11013" max="11013" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11020" max="11020" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11266" width="8.796875" style="1"/>
-    <col min="11267" max="11267" width="1.296875" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.83203125" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11269" max="11269" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11276" max="11276" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11522" width="8.796875" style="1"/>
-    <col min="11523" max="11523" width="1.296875" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.83203125" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11525" max="11525" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11532" max="11532" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11778" width="8.796875" style="1"/>
-    <col min="11779" max="11779" width="1.296875" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.83203125" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11781" max="11781" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11788" max="11788" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11789" max="12034" width="8.796875" style="1"/>
-    <col min="12035" max="12035" width="1.296875" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.83203125" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12037" max="12037" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12044" max="12044" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12290" width="8.796875" style="1"/>
-    <col min="12291" max="12291" width="1.296875" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.83203125" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12293" max="12293" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12300" max="12300" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12546" width="8.796875" style="1"/>
-    <col min="12547" max="12547" width="1.296875" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.83203125" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12549" max="12549" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12556" max="12556" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12802" width="8.796875" style="1"/>
-    <col min="12803" max="12803" width="1.296875" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.83203125" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12805" max="12805" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12812" max="12812" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12813" max="13058" width="8.796875" style="1"/>
-    <col min="13059" max="13059" width="1.296875" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.83203125" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13061" max="13061" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13068" max="13068" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13314" width="8.796875" style="1"/>
-    <col min="13315" max="13315" width="1.296875" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.83203125" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13317" max="13317" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13324" max="13324" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13570" width="8.796875" style="1"/>
-    <col min="13571" max="13571" width="1.296875" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.83203125" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13573" max="13573" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13580" max="13580" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13826" width="8.796875" style="1"/>
-    <col min="13827" max="13827" width="1.296875" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.83203125" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13829" max="13829" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13836" max="13836" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13837" max="14082" width="8.796875" style="1"/>
-    <col min="14083" max="14083" width="1.296875" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.83203125" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14085" max="14085" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14092" max="14092" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14338" width="8.796875" style="1"/>
-    <col min="14339" max="14339" width="1.296875" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.83203125" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14341" max="14341" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14348" max="14348" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14594" width="8.796875" style="1"/>
-    <col min="14595" max="14595" width="1.296875" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.83203125" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14597" max="14597" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14604" max="14604" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14850" width="8.796875" style="1"/>
-    <col min="14851" max="14851" width="1.296875" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.83203125" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14853" max="14853" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14860" max="14860" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14861" max="15106" width="8.796875" style="1"/>
-    <col min="15107" max="15107" width="1.296875" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.83203125" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15109" max="15109" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15116" max="15116" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15362" width="8.796875" style="1"/>
-    <col min="15363" max="15363" width="1.296875" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.83203125" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15365" max="15365" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15372" max="15372" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15618" width="8.796875" style="1"/>
-    <col min="15619" max="15619" width="1.296875" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.83203125" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15621" max="15621" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15628" max="15628" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15874" width="8.796875" style="1"/>
-    <col min="15875" max="15875" width="1.296875" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.83203125" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15877" max="15877" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15884" max="15884" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15885" max="16130" width="8.796875" style="1"/>
-    <col min="16131" max="16131" width="1.296875" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.83203125" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16133" max="16133" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16140" max="16140" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16384" width="8.796875" style="1"/>
+    <col min="16141" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="20" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="20" customHeight="1">
       <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="K3" s="36"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="K4" s="27"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -3111,7 +3111,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B7" s="9">
         <v>2</v>
       </c>
@@ -3136,7 +3136,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B8" s="9">
         <v>3</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="20" customHeight="1">
       <c r="B9" s="9">
         <v>4</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="20" customHeight="1">
       <c r="B10" s="9">
         <v>5</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="20" customHeight="1">
       <c r="B11" s="9">
         <v>6</v>
       </c>
@@ -3206,7 +3206,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="20" customHeight="1">
       <c r="B12" s="9">
         <v>7</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="20" customHeight="1">
       <c r="B13" s="9">
         <v>8</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="14" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="20" customHeight="1">
       <c r="B14" s="9">
         <v>9</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="20" customHeight="1">
       <c r="B15" s="9">
         <v>10</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="20" customHeight="1">
       <c r="B16" s="9">
         <v>11</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="18"/>
     </row>
-    <row r="17" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="20" customHeight="1">
       <c r="B17" s="9">
         <v>12</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="18"/>
     </row>
-    <row r="18" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="20" customHeight="1">
       <c r="B18" s="9">
         <v>13</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="18"/>
     </row>
-    <row r="19" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="20" customHeight="1">
       <c r="B19" s="9">
         <v>14</v>
       </c>
@@ -3326,7 +3326,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="18"/>
     </row>
-    <row r="20" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="20" customHeight="1">
       <c r="B20" s="9">
         <v>15</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="16"/>
     </row>
-    <row r="21" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B21" s="11">
         <v>16</v>
       </c>
@@ -3380,14 +3380,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="25"/>
-    <col min="2" max="2" width="37.69921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.796875" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="37.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="25">
         <v>700</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="25">
         <v>701</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="25">
         <v>702</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="25">
         <v>703</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="25">
         <v>704</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="25">
         <v>705</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="25">
         <v>706</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="25">
         <v>707</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="25">
         <v>708</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="25">
         <v>709</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="25">
         <v>710</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="25">
         <v>711</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="25">
         <v>712</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="25">
         <v>713</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="25">
         <v>714</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="25">
         <v>715</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="25">
         <v>716</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="25">
         <v>717</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="25">
         <v>718</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="25">
         <v>719</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="25">
         <v>720</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="25">
         <v>721</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="20">
       <c r="A23" s="25">
         <v>722</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="25">
         <v>723</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="25">
         <v>724</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="25">
         <v>725</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="25">
         <v>726</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="20">
       <c r="A28" s="25">
         <v>727</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="25">
         <v>728</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="25">
         <v>729</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="25">
         <v>730</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="20">
       <c r="A32" s="25">
         <v>731</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="25">
         <v>732</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="20">
       <c r="A34" s="25">
         <v>733</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="25">
         <v>734</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="25">
         <v>735</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="25">
         <v>736</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="25">
         <v>700</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="25">
         <v>701</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="25">
         <v>702</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="25">
         <v>703</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="25">
         <v>704</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="25">
         <v>705</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="25">
         <v>706</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="25">
         <v>707</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="25">
         <v>708</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="25">
         <v>709</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="25">
         <v>710</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="25">
         <v>711</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="25">
         <v>712</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="25">
         <v>713</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="25">
         <v>714</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="25">
         <v>715</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="25">
         <v>716</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="25">
         <v>717</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="25">
         <v>718</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="25">
         <v>719</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="25">
         <v>720</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="25">
         <v>721</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="20">
       <c r="A60" s="25">
         <v>722</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="25">
         <v>723</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="25">
         <v>724</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="25">
         <v>725</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="25">
         <v>726</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="20">
       <c r="A65" s="25">
         <v>727</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="25">
         <v>728</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="25">
         <v>729</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="25">
         <v>730</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="20">
       <c r="A69" s="25">
         <v>731</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="25">
         <v>732</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="20">
       <c r="A71" s="25">
         <v>733</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="25">
         <v>734</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="25">
         <v>735</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="25">
         <v>736</v>
       </c>
@@ -4209,14 +4209,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="25"/>
-    <col min="2" max="2" width="33.796875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.796875" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="33.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="25">
         <v>800</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="25">
         <v>801</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="25">
         <v>802</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="25">
         <v>803</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="25">
         <v>804</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="25">
         <v>805</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="25">
         <v>806</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="25">
         <v>807</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="25">
         <v>808</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="25">
         <v>809</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="25">
         <v>810</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="25">
         <v>811</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="25">
         <v>812</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="25">
         <v>813</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="25">
         <v>814</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="25">
         <v>815</v>
       </c>
@@ -4403,14 +4403,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="25"/>
-    <col min="2" max="2" width="24.296875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.796875" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="24.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="25">
         <v>900</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="25">
         <v>901</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="25">
         <v>902</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="25">
         <v>903</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="25">
         <v>904</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="25">
         <v>905</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="25">
         <v>906</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="25">
         <v>907</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="25">
         <v>908</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="25">
         <v>909</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="25">
         <v>910</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="25">
         <v>911</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="25">
         <v>912</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="25">
         <v>913</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="25">
         <v>914</v>
       </c>
@@ -4582,16 +4582,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4330EC0-33D0-AC49-BDC4-7C407B89383F}">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="37.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18">
       <c r="A2" s="22">
         <v>100</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18">
       <c r="A3" s="22">
         <v>101</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18">
       <c r="A4" s="22">
         <v>102</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="22">
         <v>103</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18">
       <c r="A6" s="22">
         <v>104</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18">
       <c r="A7" s="22">
         <v>105</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="18">
       <c r="A8" s="22">
         <v>106</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="18">
       <c r="A9" s="22">
         <v>107</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18">
       <c r="A10" s="22">
         <v>108</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="18">
       <c r="A11" s="22">
         <v>109</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="22">
         <v>110</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="18">
       <c r="A13" s="22">
         <v>200</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="22">
         <v>201</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="18">
       <c r="A15" s="22">
         <v>202</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="18">
       <c r="A16" s="22">
         <v>300</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="20">
       <c r="A17" s="22">
         <v>301</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="20">
       <c r="A18" s="22">
         <v>302</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="20">
       <c r="A19" s="22">
         <v>303</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="20">
       <c r="A20" s="22">
         <v>304</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="20">
       <c r="A21" s="22">
         <v>305</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="20">
       <c r="A22" s="22">
         <v>306</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="20">
       <c r="A23" s="22">
         <v>307</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="20">
       <c r="A24" s="22">
         <v>308</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="20">
       <c r="A25" s="22">
         <v>309</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="20">
       <c r="A26" s="22">
         <v>310</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="20">
       <c r="A27" s="22">
         <v>311</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="20">
       <c r="A28" s="22">
         <v>312</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="18">
       <c r="A29" s="22">
         <v>313</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="18">
       <c r="A30" s="22">
         <v>314</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="20">
       <c r="A31" s="22">
         <v>315</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="20">
       <c r="A32" s="22">
         <v>316</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="18">
       <c r="A33" s="22">
         <v>317</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="20">
       <c r="A34" s="22">
         <v>318</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="20">
       <c r="A35" s="22">
         <v>319</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="18">
       <c r="A36" s="22">
         <v>320</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="18">
       <c r="A37" s="22">
         <v>321</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="20">
       <c r="A38" s="22">
         <v>322</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="18">
       <c r="A39" s="22">
         <v>323</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="20">
       <c r="A40" s="22">
         <v>324</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="20">
       <c r="A41" s="22">
         <v>325</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="18">
       <c r="A42" s="22">
         <v>326</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="18">
       <c r="A43" s="22">
         <v>327</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="20">
       <c r="A44" s="22">
         <v>328</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="20">
       <c r="A45" s="22">
         <v>329</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="20">
       <c r="A46" s="22">
         <v>330</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="20">
       <c r="A47" s="22">
         <v>331</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="18">
       <c r="A48" s="22">
         <v>400</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="18">
       <c r="A49" s="22">
         <v>401</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="18">
       <c r="A50" s="22">
         <v>402</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="18">
       <c r="A51" s="22">
         <v>403</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="18">
       <c r="A52" s="22">
         <v>404</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="18">
       <c r="A53" s="22">
         <v>405</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="18">
       <c r="A54" s="22">
         <v>406</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="18">
       <c r="A55" s="22">
         <v>407</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="18">
       <c r="A56" s="22">
         <v>408</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="18">
       <c r="A57" s="22">
         <v>409</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="18">
       <c r="A58" s="22">
         <v>410</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="18">
       <c r="A59" s="22">
         <v>411</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="18">
       <c r="A60" s="22">
         <v>412</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="18">
       <c r="A61" s="22">
         <v>413</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="18">
       <c r="A62" s="22">
         <v>414</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="18">
       <c r="A63" s="22">
         <v>415</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="18">
       <c r="A64" s="22">
         <v>416</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="18">
       <c r="A65" s="22">
         <v>500</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="18">
       <c r="A66" s="22">
         <v>501</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="18">
       <c r="A67" s="22">
         <v>502</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="18">
       <c r="A68" s="22">
         <v>503</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="18">
       <c r="A69" s="22">
         <v>504</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="18">
       <c r="A70" s="22">
         <v>505</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="18">
       <c r="A71" s="22">
         <v>506</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="18">
       <c r="A72" s="22">
         <v>507</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="18">
       <c r="A73" s="22">
         <v>600</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="18">
       <c r="A74" s="22">
         <v>601</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="18">
       <c r="A75" s="22">
         <v>602</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="18">
       <c r="A76" s="22">
         <v>603</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="18">
       <c r="A77" s="22">
         <v>800</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="18">
       <c r="A78" s="22">
         <v>801</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="18">
       <c r="A79" s="22">
         <v>802</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="18">
       <c r="A80" s="22">
         <v>803</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="18">
       <c r="A81" s="22">
         <v>804</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="18">
       <c r="A82" s="22">
         <v>805</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="18">
       <c r="A83" s="22">
         <v>806</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="18">
       <c r="A84" s="22">
         <v>807</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="18">
       <c r="A85" s="22">
         <v>808</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="18">
       <c r="A86" s="22">
         <v>809</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="18">
       <c r="A87" s="22">
         <v>810</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="18">
       <c r="A88" s="22">
         <v>811</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="18">
       <c r="A89" s="22">
         <v>812</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="18">
       <c r="A90" s="22">
         <v>813</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="18">
       <c r="A91" s="22">
         <v>814</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="18">
       <c r="A92" s="22">
         <v>815</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="18">
       <c r="A93" s="22">
         <v>900</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="18">
       <c r="A94" s="22">
         <v>901</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="18">
       <c r="A95" s="22">
         <v>902</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="18">
       <c r="A96" s="22">
         <v>903</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="18">
       <c r="A97" s="22">
         <v>904</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="18">
       <c r="A98" s="22">
         <v>905</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="18">
       <c r="A99" s="22">
         <v>906</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="18">
       <c r="A100" s="22">
         <v>907</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="18">
       <c r="A101" s="22">
         <v>908</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="18">
       <c r="A102" s="22">
         <v>909</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="18">
       <c r="A103" s="22">
         <v>910</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="18">
       <c r="A104" s="22">
         <v>911</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="18">
       <c r="A105" s="22">
         <v>912</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="18">
       <c r="A106" s="22">
         <v>913</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="18">
       <c r="A107" s="22">
         <v>914</v>
       </c>
@@ -5461,12 +5461,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18">
       <c r="A1" t="s">
         <v>150</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="18">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="18">
       <c r="A9" t="s">
         <v>147</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -5560,15 +5560,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
     <col min="2" max="2" width="29.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.796875" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="10.796875" style="25"/>
+    <col min="3" max="3" width="19.83203125" style="25" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="25">
         <v>100</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="25">
         <v>101</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="25">
         <v>102</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="25">
         <v>103</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="25">
         <v>104</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="25">
         <v>105</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="25">
         <v>106</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="25">
         <v>107</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="25">
         <v>108</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="25">
         <v>109</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="25">
         <v>110</v>
       </c>
@@ -5700,15 +5700,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="10.796875" style="25"/>
-    <col min="4" max="4" width="10.19921875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.796875" style="25"/>
+    <col min="1" max="3" width="10.83203125" style="25"/>
+    <col min="4" max="4" width="10.1640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="25" t="s">
         <v>164</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="D2" s="25">
         <v>201</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="D3" s="25">
         <v>202</v>
       </c>
@@ -5758,14 +5758,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="25"/>
-    <col min="2" max="2" width="36.796875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.796875" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="36.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="25">
         <v>300</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20">
       <c r="A2" s="25">
         <v>301</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20">
       <c r="A3" s="25">
         <v>302</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="20">
       <c r="A4" s="25">
         <v>303</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="20">
       <c r="A5" s="25">
         <v>304</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="20">
       <c r="A6" s="25">
         <v>305</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="20">
       <c r="A7" s="25">
         <v>306</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="20">
       <c r="A8" s="25">
         <v>307</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="20">
       <c r="A9" s="25">
         <v>308</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="20">
       <c r="A10" s="25">
         <v>309</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="20">
       <c r="A11" s="25">
         <v>310</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="20">
       <c r="A12" s="25">
         <v>311</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="20">
       <c r="A13" s="25">
         <v>312</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="25">
         <v>313</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="25">
         <v>314</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="20">
       <c r="A16" s="25">
         <v>315</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="20">
       <c r="A17" s="25">
         <v>316</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="25">
         <v>317</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="20">
       <c r="A19" s="25">
         <v>318</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="20">
       <c r="A20" s="25">
         <v>319</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="25">
         <v>320</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="25">
         <v>321</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="20">
       <c r="A23" s="25">
         <v>322</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="25">
         <v>323</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="20">
       <c r="A25" s="25">
         <v>324</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="20">
       <c r="A26" s="25">
         <v>325</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="25">
         <v>326</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="25">
         <v>327</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="20">
       <c r="A29" s="25">
         <v>328</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="20">
       <c r="A30" s="25">
         <v>329</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="20">
       <c r="A31" s="25">
         <v>330</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="20">
       <c r="A32" s="25">
         <v>331</v>
       </c>
@@ -6128,14 +6128,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="25"/>
-    <col min="2" max="2" width="36.796875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.796875" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="36.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="25">
         <v>400</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="25">
         <v>401</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="25">
         <v>402</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="25">
         <v>403</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="25">
         <v>404</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="25">
         <v>405</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="25">
         <v>406</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="25">
         <v>407</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="25">
         <v>408</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="25">
         <v>409</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="25">
         <v>410</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="25">
         <v>411</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="25">
         <v>412</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="25">
         <v>413</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="25">
         <v>414</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="25">
         <v>415</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="25">
         <v>416</v>
       </c>
@@ -6333,14 +6333,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="25"/>
-    <col min="2" max="2" width="31.69921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.796875" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="31.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="25">
         <v>500</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="25">
         <v>501</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="25">
         <v>502</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="25">
         <v>503</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="25">
         <v>504</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="25">
         <v>505</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="25">
         <v>506</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="25">
         <v>507</v>
       </c>
@@ -6439,14 +6439,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
     <col min="2" max="2" width="32.5" style="25" customWidth="1"/>
-    <col min="3" max="16384" width="10.796875" style="25"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="25">
         <v>600</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="25">
         <v>601</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="25">
         <v>602</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="25">
         <v>603</v>
       </c>
